--- a/conf/README_report_fields.xlsx
+++ b/conf/README_report_fields.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\xx92\vdp3.0\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86410EB6-73D7-4E4A-B457-158F67544FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E7C880-52F6-4FB6-A5BC-98E0CE67036E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="393" xr2:uid="{06F1E332-6514-4879-BB67-A2635524FFAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="393" activeTab="3" xr2:uid="{06F1E332-6514-4879-BB67-A2635524FFAE}"/>
   </bookViews>
   <sheets>
     <sheet name="SNV" sheetId="1" r:id="rId1"/>
     <sheet name="CNV" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SNV_Exmpl" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="646">
   <si>
     <t>chr</t>
   </si>
@@ -1547,6 +1548,432 @@
   </si>
   <si>
     <t>25741868,18414213</t>
+  </si>
+  <si>
+    <t>CCG0519-CN</t>
+  </si>
+  <si>
+    <t>CCG0520-CN</t>
+  </si>
+  <si>
+    <t>CCG0521-CN</t>
+  </si>
+  <si>
+    <t>CCG0519-CNQ</t>
+  </si>
+  <si>
+    <t>CCG0520-CNQ</t>
+  </si>
+  <si>
+    <t>CCG0521-CNQ</t>
+  </si>
+  <si>
+    <t>CCG0519-CNLP</t>
+  </si>
+  <si>
+    <t>CCG0520-CNLP</t>
+  </si>
+  <si>
+    <t>CCG0521-CNLP</t>
+  </si>
+  <si>
+    <t>&lt;DEL&gt;,&lt;DUP&gt;</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>0,116,78,116,116,116</t>
+  </si>
+  <si>
+    <t>DEL,DUP</t>
+  </si>
+  <si>
+    <t>coding_sequence_variant,intron_variant</t>
+  </si>
+  <si>
+    <t>MMP23B</t>
+  </si>
+  <si>
+    <t>ENSG00000189409</t>
+  </si>
+  <si>
+    <t>ENST00000356026</t>
+  </si>
+  <si>
+    <t>HGNC:7171</t>
+  </si>
+  <si>
+    <t>77,80,0,92,107,115</t>
+  </si>
+  <si>
+    <t>98,85,0,38,27,32</t>
+  </si>
+  <si>
+    <t>0,115,78,116,116,116</t>
+  </si>
+  <si>
+    <t>DUP</t>
+  </si>
+  <si>
+    <t>116,40,0,63,100,114</t>
+  </si>
+  <si>
+    <t>113,112,9,7,0,3</t>
+  </si>
+  <si>
+    <t>0,67,78,115,116,116</t>
+  </si>
+  <si>
+    <t>116,61,0,40,58,83</t>
+  </si>
+  <si>
+    <t>113,34,4,6,0,6</t>
+  </si>
+  <si>
+    <t>115,24,0,7,25,47</t>
+  </si>
+  <si>
+    <t>coding_sequence_variant,3_prime_UTR_variant,intron_variant</t>
+  </si>
+  <si>
+    <t>115,7,0,53,84,100</t>
+  </si>
+  <si>
+    <t>115,98,0,9,14,25</t>
+  </si>
+  <si>
+    <t>CDK11B</t>
+  </si>
+  <si>
+    <t>ENSG00000248333</t>
+  </si>
+  <si>
+    <t>ENST00000407249</t>
+  </si>
+  <si>
+    <t>HGNC:1729</t>
+  </si>
+  <si>
+    <t>0,84,78,115,116,116</t>
+  </si>
+  <si>
+    <t>0,52,66,115,116,116</t>
+  </si>
+  <si>
+    <t>115,19,0,64,99,111</t>
+  </si>
+  <si>
+    <t>SLC35E2B</t>
+  </si>
+  <si>
+    <t>ENSG00000189339</t>
+  </si>
+  <si>
+    <t>ENST00000617444</t>
+  </si>
+  <si>
+    <t>HGNC:33941</t>
+  </si>
+  <si>
+    <t>115,67,0,15,30,52</t>
+  </si>
+  <si>
+    <t>115,58,0,12,17,29</t>
+  </si>
+  <si>
+    <t>113,113,55,11,1,0</t>
+  </si>
+  <si>
+    <t>CDK11A</t>
+  </si>
+  <si>
+    <t>ENSG00000008128</t>
+  </si>
+  <si>
+    <t>ENST00000378633</t>
+  </si>
+  <si>
+    <t>20/20</t>
+  </si>
+  <si>
+    <t>19/19</t>
+  </si>
+  <si>
+    <t>HGNC:1730</t>
+  </si>
+  <si>
+    <t>115,76,0,15,28,37</t>
+  </si>
+  <si>
+    <t>115,65,0,12,17,24</t>
+  </si>
+  <si>
+    <t>113,113,71,10,1,0</t>
+  </si>
+  <si>
+    <t>19/20</t>
+  </si>
+  <si>
+    <t>18-19/19</t>
+  </si>
+  <si>
+    <t>116,112,0,28,73,101</t>
+  </si>
+  <si>
+    <t>116,104,0,27,60,96</t>
+  </si>
+  <si>
+    <t>115,115,54,0,13,32</t>
+  </si>
+  <si>
+    <t>18/20</t>
+  </si>
+  <si>
+    <t>17-18/19</t>
+  </si>
+  <si>
+    <t>116,114,0,77,100,112</t>
+  </si>
+  <si>
+    <t>116,114,0,73,104,114</t>
+  </si>
+  <si>
+    <t>116,116,78,0,46,82</t>
+  </si>
+  <si>
+    <t>17/20</t>
+  </si>
+  <si>
+    <t>16-17/19</t>
+  </si>
+  <si>
+    <t>116,113,0,75,107,114</t>
+  </si>
+  <si>
+    <t>116,100,0,59,86,113</t>
+  </si>
+  <si>
+    <t>116,115,72,0,56,83</t>
+  </si>
+  <si>
+    <t>16/20</t>
+  </si>
+  <si>
+    <t>15-16/19</t>
+  </si>
+  <si>
+    <t>116,112,0,78,108,114</t>
+  </si>
+  <si>
+    <t>116,106,0,68,108,115</t>
+  </si>
+  <si>
+    <t>116,116,66,0,48,82</t>
+  </si>
+  <si>
+    <t>15/20</t>
+  </si>
+  <si>
+    <t>14-15/19</t>
+  </si>
+  <si>
+    <t>116,97,0,63,92,110</t>
+  </si>
+  <si>
+    <t>116,88,0,60,85,108</t>
+  </si>
+  <si>
+    <t>115,115,17,0,35,53</t>
+  </si>
+  <si>
+    <t>14/20</t>
+  </si>
+  <si>
+    <t>13-14/19</t>
+  </si>
+  <si>
+    <t>0,70,77,113,116,116</t>
+  </si>
+  <si>
+    <t>0,4,9,68,101,113</t>
+  </si>
+  <si>
+    <t>113,103,25,2,0,6</t>
+  </si>
+  <si>
+    <t>116,90,0,75,98,112</t>
+  </si>
+  <si>
+    <t>116,55,0,71,85,99</t>
+  </si>
+  <si>
+    <t>113,113,38,2,0,6</t>
+  </si>
+  <si>
+    <t>115,17,0,26,57,92</t>
+  </si>
+  <si>
+    <t>116,73,0,31,36,44</t>
+  </si>
+  <si>
+    <t>113,113,75,24,0,0</t>
+  </si>
+  <si>
+    <t>113,112,31,0,0,17</t>
+  </si>
+  <si>
+    <t>116,39,0,38,75,98</t>
+  </si>
+  <si>
+    <t>113,113,75,54,1,0</t>
+  </si>
+  <si>
+    <t>115,6,0,24,34,43</t>
+  </si>
+  <si>
+    <t>76,7,0,22,31,39</t>
+  </si>
+  <si>
+    <t>116,116,78,45,23,0</t>
+  </si>
+  <si>
+    <t>116,99,0,75,100,107</t>
+  </si>
+  <si>
+    <t>116,77,0,59,101,110</t>
+  </si>
+  <si>
+    <t>113,113,61,0,0,42</t>
+  </si>
+  <si>
+    <t>115,96,0,17,72,84</t>
+  </si>
+  <si>
+    <t>116,76,0,57,97,106</t>
+  </si>
+  <si>
+    <t>115,115,70,0,6,28</t>
+  </si>
+  <si>
+    <t>SLC35E2A</t>
+  </si>
+  <si>
+    <t>ENSG00000215790</t>
+  </si>
+  <si>
+    <t>ENST00000643905</t>
+  </si>
+  <si>
+    <t>?-1475</t>
+  </si>
+  <si>
+    <t>HGNC:20863</t>
+  </si>
+  <si>
+    <t>115,13,0,33,56,69</t>
+  </si>
+  <si>
+    <t>115,21,0,37,49,60</t>
+  </si>
+  <si>
+    <t>114,114,54,0,5,11</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t>1-2/7</t>
+  </si>
+  <si>
+    <t>3-4/8</t>
+  </si>
+  <si>
+    <t>2-4/7</t>
+  </si>
+  <si>
+    <t>5-6/8</t>
+  </si>
+  <si>
+    <t>4-6/7</t>
+  </si>
+  <si>
+    <t>7/8</t>
+  </si>
+  <si>
+    <t>6-7/7</t>
+  </si>
+  <si>
+    <t>8/8</t>
+  </si>
+  <si>
+    <t>7/7</t>
+  </si>
+  <si>
+    <t>9/20</t>
+  </si>
+  <si>
+    <t>8-9/19</t>
+  </si>
+  <si>
+    <t>8/20</t>
+  </si>
+  <si>
+    <t>7-8/19</t>
+  </si>
+  <si>
+    <t>7/20</t>
+  </si>
+  <si>
+    <t>6-7/19</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>3-4/9</t>
+  </si>
+  <si>
+    <t>12/20</t>
+  </si>
+  <si>
+    <t>11-12/19</t>
+  </si>
+  <si>
+    <t>11/20</t>
+  </si>
+  <si>
+    <t>10-11/19</t>
+  </si>
+  <si>
+    <t>10/20</t>
+  </si>
+  <si>
+    <t>9-10/19</t>
+  </si>
+  <si>
+    <t>6/20</t>
+  </si>
+  <si>
+    <t>5-6/19</t>
+  </si>
+  <si>
+    <t>3/20</t>
+  </si>
+  <si>
+    <t>2-3/19</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>5/6</t>
+  </si>
+  <si>
+    <t>4-5/5</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +2010,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1629,6 +2056,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,7 +2151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1726,7 +2159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1768,8 +2200,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1778,6 +2208,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2094,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535661A1-0344-4357-B34F-C85A458867F2}">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,2596 +4413,2594 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A3217D-9748-4C25-B8E7-010430763094}">
   <dimension ref="A1:DL9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BV7" sqref="BV7"/>
-    </sheetView>
+    <sheetView topLeftCell="X1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.85546875" style="42"/>
-    <col min="9" max="9" width="13.42578125" style="43" customWidth="1"/>
-    <col min="10" max="23" width="13.42578125" style="42" customWidth="1"/>
-    <col min="24" max="24" width="15" style="42" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" style="42"/>
-    <col min="26" max="26" width="11.42578125" style="42" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" style="42"/>
-    <col min="28" max="28" width="34.28515625" style="44" customWidth="1"/>
-    <col min="29" max="30" width="10.85546875" style="44"/>
-    <col min="31" max="31" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" style="42"/>
-    <col min="33" max="33" width="16.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="10.85546875" style="42"/>
-    <col min="37" max="37" width="20.7109375" style="42" customWidth="1"/>
-    <col min="38" max="43" width="10.85546875" style="42"/>
-    <col min="44" max="44" width="23.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="45" max="48" width="10.85546875" style="42"/>
-    <col min="49" max="49" width="16.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.42578125" style="42" customWidth="1"/>
-    <col min="51" max="51" width="12.7109375" style="42" customWidth="1"/>
-    <col min="52" max="52" width="15.28515625" style="42" customWidth="1"/>
-    <col min="53" max="57" width="10.85546875" style="42"/>
-    <col min="58" max="58" width="13.5703125" style="42" customWidth="1"/>
-    <col min="59" max="61" width="10.85546875" style="42"/>
-    <col min="62" max="70" width="17" style="42" customWidth="1"/>
-    <col min="71" max="71" width="10.85546875" style="44"/>
-    <col min="72" max="78" width="10.85546875" style="42"/>
-    <col min="79" max="79" width="29.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.85546875" style="42"/>
-    <col min="83" max="83" width="15" style="42" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="33.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="86" max="116" width="26" style="42" customWidth="1"/>
+    <col min="1" max="8" width="10.85546875" style="39"/>
+    <col min="9" max="9" width="13.42578125" style="40" customWidth="1"/>
+    <col min="10" max="23" width="13.42578125" style="39" customWidth="1"/>
+    <col min="24" max="24" width="15" style="39" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" style="39"/>
+    <col min="26" max="26" width="11.42578125" style="39" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" style="39"/>
+    <col min="28" max="28" width="34.28515625" style="41" customWidth="1"/>
+    <col min="29" max="30" width="10.85546875" style="41"/>
+    <col min="31" max="31" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" style="39"/>
+    <col min="33" max="33" width="16.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="10.85546875" style="39"/>
+    <col min="37" max="37" width="20.7109375" style="39" customWidth="1"/>
+    <col min="38" max="43" width="10.85546875" style="39"/>
+    <col min="44" max="44" width="23.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="10.85546875" style="39"/>
+    <col min="49" max="49" width="16.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.42578125" style="39" customWidth="1"/>
+    <col min="51" max="51" width="12.7109375" style="39" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" style="39" customWidth="1"/>
+    <col min="53" max="57" width="10.85546875" style="39"/>
+    <col min="58" max="58" width="13.5703125" style="39" customWidth="1"/>
+    <col min="59" max="61" width="10.85546875" style="39"/>
+    <col min="62" max="70" width="17" style="39" customWidth="1"/>
+    <col min="71" max="71" width="10.85546875" style="41"/>
+    <col min="72" max="78" width="10.85546875" style="39"/>
+    <col min="79" max="79" width="29.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.85546875" style="39"/>
+    <col min="83" max="83" width="15" style="39" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="33.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="86" max="116" width="26" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="31" t="s">
+      <c r="AG1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="31" t="s">
+      <c r="AH1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="31" t="s">
+      <c r="AI1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="31" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="31" t="s">
+      <c r="AK1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="31" t="s">
+      <c r="AL1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="31" t="s">
+      <c r="AM1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" s="31" t="s">
+      <c r="AN1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="31" t="s">
+      <c r="AO1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="31" t="s">
+      <c r="AP1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="31" t="s">
+      <c r="AQ1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AR1" s="31" t="s">
+      <c r="AR1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="29" t="s">
+      <c r="AU1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AV1" s="29" t="s">
+      <c r="AV1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AZ1" s="29" t="s">
+      <c r="AZ1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="BA1" s="29" t="s">
+      <c r="BA1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="BB1" s="29" t="s">
+      <c r="BB1" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="BC1" s="29" t="s">
+      <c r="BC1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="BD1" s="29" t="s">
+      <c r="BD1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BE1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BG1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="BH1" s="35" t="s">
+      <c r="BH1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="BJ1" s="31" t="s">
+      <c r="BJ1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="BK1" s="31" t="s">
+      <c r="BK1" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="31" t="s">
+      <c r="BL1" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="BM1" s="31" t="s">
+      <c r="BM1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="BN1" s="31" t="s">
+      <c r="BN1" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="BO1" s="31" t="s">
+      <c r="BO1" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="BP1" s="31" t="s">
+      <c r="BP1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="BQ1" s="31" t="s">
+      <c r="BQ1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="BR1" s="31" t="s">
+      <c r="BR1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="BS1" s="40" t="s">
+      <c r="BS1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BW1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BX1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BY1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="CA1" s="38" t="s">
+      <c r="CA1" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="CB1" s="15" t="s">
+      <c r="CB1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="CC1" s="15" t="s">
+      <c r="CC1" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CD1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="CE1" s="10" t="s">
+      <c r="CE1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="CF1" s="10" t="s">
+      <c r="CF1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="CG1" s="10" t="s">
+      <c r="CG1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="CH1" s="31" t="s">
+      <c r="CH1" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="CI1" s="31" t="s">
+      <c r="CI1" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="CJ1" s="31" t="s">
+      <c r="CJ1" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="CK1" s="31" t="s">
+      <c r="CK1" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="CL1" s="31" t="s">
+      <c r="CL1" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="CM1" s="31" t="s">
+      <c r="CM1" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="CN1" s="31" t="s">
+      <c r="CN1" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="CO1" s="31" t="s">
+      <c r="CO1" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="CP1" s="31" t="s">
+      <c r="CP1" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="CQ1" s="31" t="s">
+      <c r="CQ1" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="CR1" s="31" t="s">
+      <c r="CR1" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="CS1" s="31" t="s">
+      <c r="CS1" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="CT1" s="31" t="s">
+      <c r="CT1" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="CU1" s="31" t="s">
+      <c r="CU1" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="CV1" s="31" t="s">
+      <c r="CV1" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="CW1" s="31" t="s">
+      <c r="CW1" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="CX1" s="31" t="s">
+      <c r="CX1" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="CY1" s="31" t="s">
+      <c r="CY1" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="CZ1" s="31" t="s">
+      <c r="CZ1" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="DA1" s="31" t="s">
+      <c r="DA1" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="DB1" s="31" t="s">
+      <c r="DB1" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="DC1" s="31" t="s">
+      <c r="DC1" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="DD1" s="31" t="s">
+      <c r="DD1" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="DE1" s="31" t="s">
+      <c r="DE1" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="DF1" s="31" t="s">
+      <c r="DF1" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="DG1" s="31" t="s">
+      <c r="DG1" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="DH1" s="31" t="s">
+      <c r="DH1" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="DI1" s="31" t="s">
+      <c r="DI1" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="DJ1" s="31" t="s">
+      <c r="DJ1" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="DK1" s="31" t="s">
+      <c r="DK1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="DL1" s="31" t="s">
+      <c r="DL1" s="30" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>939398</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>161</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>131</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>30</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>91</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <v>90</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="22">
         <v>99</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="24">
         <v>41</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <v>32</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="22">
         <v>88</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>41</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="15">
         <v>32</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="22">
         <v>58</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="15">
         <v>0</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="15">
         <v>0</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="15">
         <v>30</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="12">
         <v>-1.96</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="Z2" s="12">
         <v>56.12</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AB2" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AC2" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="AD2" s="28" t="s">
+      <c r="AD2" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AF2" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AJ2" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="AK2" s="32" t="s">
+      <c r="AK2" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32" t="s">
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="AN2" s="32" t="s">
+      <c r="AN2" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="AO2" s="32" t="s">
+      <c r="AO2" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32" t="s">
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9">
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8">
         <v>1</v>
       </c>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30">
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29">
         <v>1</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AX2" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="AY2"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30" t="s">
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="BB2" s="30" t="s">
+      <c r="BB2" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="BC2" s="30" t="s">
+      <c r="BC2" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11" t="s">
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="36">
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="8">
         <v>38</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BI2" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="BJ2" s="32">
+      <c r="BJ2" s="31">
         <v>4.0250000000000001E-2</v>
       </c>
-      <c r="BK2" s="32">
+      <c r="BK2" s="31">
         <v>1.1469999999999999E-2</v>
       </c>
-      <c r="BL2" s="32">
+      <c r="BL2" s="31">
         <v>4.2810000000000001E-2</v>
       </c>
-      <c r="BM2" s="32">
+      <c r="BM2" s="31">
         <v>2.9829999999999999E-2</v>
       </c>
-      <c r="BN2" s="32">
+      <c r="BN2" s="31">
         <v>3.124E-3</v>
       </c>
-      <c r="BO2" s="32">
+      <c r="BO2" s="31">
         <v>5.4039999999999998E-2</v>
       </c>
-      <c r="BP2" s="32">
+      <c r="BP2" s="31">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="BQ2" s="32">
+      <c r="BQ2" s="31">
         <v>4.3119999999999999E-2</v>
       </c>
-      <c r="BR2" s="32">
+      <c r="BR2" s="31">
         <v>4.4490000000000002E-2</v>
       </c>
-      <c r="BS2" s="41"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2" s="7"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="9"/>
-      <c r="BZ2" s="9"/>
-      <c r="CA2" s="39" t="s">
+      <c r="BS2" s="38"/>
+      <c r="BT2" s="44"/>
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="42"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="CB2" s="16" t="s">
+      <c r="CB2" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="11">
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="10">
         <v>769497</v>
       </c>
-      <c r="CE2" s="11" t="s">
+      <c r="CE2" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="CF2" s="11" t="s">
+      <c r="CF2" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="CG2" s="11" t="s">
+      <c r="CG2" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="CH2" s="32" t="s">
+      <c r="CH2" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="CI2" s="37">
+      <c r="CI2" s="34">
         <v>4.8854799999999997E-2</v>
       </c>
-      <c r="CJ2" s="37">
+      <c r="CJ2" s="34">
         <v>4.77256E-2</v>
       </c>
-      <c r="CK2" s="37">
+      <c r="CK2" s="34">
         <v>5.0049200000000002E-2</v>
       </c>
-      <c r="CL2" s="37">
+      <c r="CL2" s="34">
         <v>2.22539E-2</v>
       </c>
-      <c r="CM2" s="37">
+      <c r="CM2" s="34">
         <v>2.2451200000000001E-2</v>
       </c>
-      <c r="CN2" s="37">
+      <c r="CN2" s="34">
         <v>2.2021700000000002E-2</v>
       </c>
-      <c r="CO2" s="37">
+      <c r="CO2" s="34">
         <v>2.3648599999999999E-2</v>
       </c>
-      <c r="CP2" s="37">
+      <c r="CP2" s="34">
         <v>1.5217400000000001E-2</v>
       </c>
-      <c r="CQ2" s="37">
+      <c r="CQ2" s="34">
         <v>3.2710299999999998E-2</v>
       </c>
-      <c r="CR2" s="37">
+      <c r="CR2" s="34">
         <v>3.6635599999999997E-2</v>
       </c>
-      <c r="CS2" s="37">
+      <c r="CS2" s="34">
         <v>4.05644E-2</v>
       </c>
-      <c r="CT2" s="37">
+      <c r="CT2" s="34">
         <v>3.3638300000000003E-2</v>
       </c>
-      <c r="CU2" s="37">
+      <c r="CU2" s="34">
         <v>2.8945800000000001E-2</v>
       </c>
-      <c r="CV2" s="37">
+      <c r="CV2" s="34">
         <v>3.7356300000000002E-2</v>
       </c>
-      <c r="CW2" s="37">
+      <c r="CW2" s="34">
         <v>1.9455299999999998E-2</v>
       </c>
-      <c r="CX2" s="37">
+      <c r="CX2" s="34">
         <v>2.5657499999999999E-3</v>
       </c>
-      <c r="CY2" s="37">
+      <c r="CY2" s="34">
         <v>2.08333E-3</v>
       </c>
-      <c r="CZ2" s="37">
+      <c r="CZ2" s="34">
         <v>2.9797399999999998E-3</v>
       </c>
-      <c r="DA2" s="37">
+      <c r="DA2" s="34">
         <v>8.9520500000000003E-2</v>
       </c>
-      <c r="DB2" s="37">
+      <c r="DB2" s="34">
         <v>8.8449100000000003E-2</v>
       </c>
-      <c r="DC2" s="37">
+      <c r="DC2" s="34">
         <v>8.9857699999999999E-2</v>
       </c>
-      <c r="DD2" s="37">
+      <c r="DD2" s="34">
         <v>6.0944999999999999E-2</v>
       </c>
-      <c r="DE2" s="37">
+      <c r="DE2" s="34">
         <v>5.97035E-2</v>
       </c>
-      <c r="DF2" s="37">
+      <c r="DF2" s="34">
         <v>6.2658699999999998E-2</v>
       </c>
-      <c r="DG2" s="37">
+      <c r="DG2" s="34">
         <v>4.5788799999999998E-2</v>
       </c>
-      <c r="DH2" s="37">
+      <c r="DH2" s="34">
         <v>4.8736500000000002E-2</v>
       </c>
-      <c r="DI2" s="37">
+      <c r="DI2" s="34">
         <v>4.5118900000000003E-2</v>
       </c>
-      <c r="DJ2" s="37">
+      <c r="DJ2" s="34">
         <v>5.4989799999999998E-2</v>
       </c>
-      <c r="DK2" s="37">
+      <c r="DK2" s="34">
         <v>5.48902E-2</v>
       </c>
-      <c r="DL2" s="37">
+      <c r="DL2" s="34">
         <v>5.50936E-2</v>
       </c>
     </row>
     <row r="3" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>939436</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>243</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>219</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>24</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <v>333</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="15">
         <v>143</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="22">
         <v>270</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="24">
         <v>121</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <v>50</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="22">
         <v>72</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <v>120</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="15">
         <v>50</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="22">
         <v>49</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="15">
         <v>1</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="15">
         <v>0</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="15">
         <v>23</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13">
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12">
         <v>59</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="AB3" s="28" t="s">
+      <c r="AB3" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="AC3" s="28" t="s">
+      <c r="AC3" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="AD3" s="28" t="s">
+      <c r="AD3" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="AE3" s="32" t="s">
+      <c r="AE3" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="AF3" s="32" t="s">
+      <c r="AF3" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="AG3" s="32" t="s">
+      <c r="AG3" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="AH3" s="32" t="s">
+      <c r="AH3" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="AI3" s="33" t="s">
+      <c r="AI3" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="32" t="s">
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="AL3" s="32" t="s">
+      <c r="AL3" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="AM3" s="32" t="s">
+      <c r="AM3" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="AN3" s="32" t="s">
+      <c r="AN3" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="AO3" s="32">
+      <c r="AO3" s="31">
         <v>228</v>
       </c>
-      <c r="AP3" s="32" t="s">
+      <c r="AP3" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="AQ3" s="32" t="s">
+      <c r="AQ3" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="AR3" s="32" t="s">
+      <c r="AR3" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9">
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8">
         <v>1</v>
       </c>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30">
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29">
         <v>1</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW3" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AX3" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AY3" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30" t="s">
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11" t="s">
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="BG3" s="11" t="s">
+      <c r="BG3" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="BH3" s="36" t="s">
+      <c r="BH3" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="15">
         <v>0.25419999999999998</v>
       </c>
-      <c r="BJ3" s="32">
+      <c r="BJ3" s="31">
         <v>2.3729999999999999E-4</v>
       </c>
-      <c r="BK3" s="32">
+      <c r="BK3" s="31">
         <v>2.5970000000000002E-4</v>
       </c>
-      <c r="BL3" s="32">
+      <c r="BL3" s="31">
         <v>1.494E-4</v>
       </c>
-      <c r="BM3" s="32">
+      <c r="BM3" s="31">
         <v>0</v>
       </c>
-      <c r="BN3" s="37">
+      <c r="BN3" s="34">
         <v>5.5390000000000003E-5</v>
       </c>
-      <c r="BO3" s="37">
+      <c r="BO3" s="34">
         <v>5.0210000000000002E-5</v>
       </c>
-      <c r="BP3" s="32">
+      <c r="BP3" s="31">
         <v>2.6929999999999999E-4</v>
       </c>
-      <c r="BQ3" s="32">
+      <c r="BQ3" s="31">
         <v>3.3720000000000001E-4</v>
       </c>
-      <c r="BR3" s="32">
+      <c r="BR3" s="31">
         <v>5.0129999999999999E-4</v>
       </c>
-      <c r="BS3" s="41"/>
-      <c r="BT3"/>
-      <c r="BU3"/>
-      <c r="BV3" s="7"/>
-      <c r="BW3" s="9"/>
-      <c r="BX3" s="9"/>
-      <c r="BY3" s="9"/>
-      <c r="BZ3" s="9"/>
-      <c r="CA3" s="39"/>
-      <c r="CB3" s="16" t="s">
+      <c r="BS3" s="38"/>
+      <c r="BT3" s="44"/>
+      <c r="BU3" s="44"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="8"/>
+      <c r="BX3" s="8"/>
+      <c r="BY3" s="8"/>
+      <c r="BZ3" s="8"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="CC3" s="16"/>
-      <c r="CD3" s="11"/>
-      <c r="CE3" s="11"/>
-      <c r="CF3" s="11"/>
-      <c r="CG3" s="11"/>
-      <c r="CH3" s="32" t="s">
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="CI3" s="37">
+      <c r="CI3" s="34">
         <v>2.10192E-4</v>
       </c>
-      <c r="CJ3" s="37">
+      <c r="CJ3" s="34">
         <v>2.2583600000000001E-4</v>
       </c>
-      <c r="CK3" s="37">
+      <c r="CK3" s="34">
         <v>1.93442E-4</v>
       </c>
-      <c r="CL3" s="37">
+      <c r="CL3" s="34">
         <v>2.0442600000000001E-4</v>
       </c>
-      <c r="CM3" s="37">
+      <c r="CM3" s="34">
         <v>1.4215300000000001E-4</v>
       </c>
-      <c r="CN3" s="37">
+      <c r="CN3" s="34">
         <v>2.77316E-4</v>
       </c>
-      <c r="CO3" s="37">
+      <c r="CO3" s="34">
         <v>0</v>
       </c>
-      <c r="CP3" s="37">
+      <c r="CP3" s="34">
         <v>0</v>
       </c>
-      <c r="CQ3" s="37">
+      <c r="CQ3" s="34">
         <v>0</v>
       </c>
-      <c r="CR3" s="37">
+      <c r="CR3" s="34">
         <v>4.0064099999999997E-4</v>
       </c>
-      <c r="CS3" s="37">
+      <c r="CS3" s="34">
         <v>7.4211500000000001E-4</v>
       </c>
-      <c r="CT3" s="37">
+      <c r="CT3" s="34">
         <v>1.41044E-4</v>
       </c>
-      <c r="CU3" s="37">
+      <c r="CU3" s="34">
         <v>0</v>
       </c>
-      <c r="CV3" s="37">
+      <c r="CV3" s="34">
         <v>0</v>
       </c>
-      <c r="CW3" s="37">
+      <c r="CW3" s="34">
         <v>0</v>
       </c>
-      <c r="CX3" s="37">
+      <c r="CX3" s="34">
         <v>0</v>
       </c>
-      <c r="CY3" s="37">
+      <c r="CY3" s="34">
         <v>0</v>
       </c>
-      <c r="CZ3" s="37">
+      <c r="CZ3" s="34">
         <v>0</v>
       </c>
-      <c r="DA3" s="37">
+      <c r="DA3" s="34">
         <v>1.16795E-4</v>
       </c>
-      <c r="DB3" s="37">
+      <c r="DB3" s="34">
         <v>0</v>
       </c>
-      <c r="DC3" s="37">
+      <c r="DC3" s="34">
         <v>1.53988E-4</v>
       </c>
-      <c r="DD3" s="37">
+      <c r="DD3" s="34">
         <v>1.94346E-4</v>
       </c>
-      <c r="DE3" s="37">
+      <c r="DE3" s="34">
         <v>2.1279200000000001E-4</v>
       </c>
-      <c r="DF3" s="37">
+      <c r="DF3" s="34">
         <v>1.68748E-4</v>
       </c>
-      <c r="DG3" s="37">
+      <c r="DG3" s="34">
         <v>7.3475400000000001E-4</v>
       </c>
-      <c r="DH3" s="37">
+      <c r="DH3" s="34">
         <v>2.0161300000000001E-3</v>
       </c>
-      <c r="DI3" s="37">
+      <c r="DI3" s="34">
         <v>4.4923599999999999E-4</v>
       </c>
-      <c r="DJ3" s="37">
+      <c r="DJ3" s="34">
         <v>0</v>
       </c>
-      <c r="DK3" s="37">
+      <c r="DK3" s="34">
         <v>0</v>
       </c>
-      <c r="DL3" s="37">
+      <c r="DL3" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>942451</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>20</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>20</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>30</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>3</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="22">
         <v>27</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="24">
         <v>10</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <v>1</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="22">
         <v>9</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <v>0</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <v>0</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="22">
         <v>0</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <v>10</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <v>1</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="15">
         <v>9</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="12">
         <v>6.13</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="12">
         <v>60</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="AB4" s="28" t="s">
+      <c r="AB4" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="AC4" s="28" t="s">
+      <c r="AC4" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="AD4" s="28" t="s">
+      <c r="AD4" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="AE4" s="32" t="s">
+      <c r="AE4" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="AF4" s="32" t="s">
+      <c r="AF4" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="AG4" s="32" t="s">
+      <c r="AG4" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="AH4" s="32" t="s">
+      <c r="AH4" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="AI4" s="33" t="s">
+      <c r="AI4" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="32" t="s">
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="AL4" s="32" t="s">
+      <c r="AL4" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="AM4" s="32">
+      <c r="AM4" s="31">
         <v>1117</v>
       </c>
-      <c r="AN4" s="32">
+      <c r="AN4" s="31">
         <v>1027</v>
       </c>
-      <c r="AO4" s="32">
+      <c r="AO4" s="31">
         <v>343</v>
       </c>
-      <c r="AP4" s="32" t="s">
+      <c r="AP4" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="AQ4" s="32" t="s">
+      <c r="AQ4" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="AR4" s="32" t="s">
+      <c r="AR4" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9">
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8">
         <v>1</v>
       </c>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="30">
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29">
         <v>1</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW4" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AX4" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AY4" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30" t="s">
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="BB4" s="30" t="s">
+      <c r="BB4" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="BC4" s="30" t="s">
+      <c r="BC4" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="BD4" s="30"/>
-      <c r="BE4" s="11" t="s">
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="BF4" s="11" t="s">
+      <c r="BF4" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="BG4" s="11" t="s">
+      <c r="BG4" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="BH4" s="36" t="s">
+      <c r="BH4" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="15">
         <v>0.21310000000000001</v>
       </c>
-      <c r="BJ4" s="32">
+      <c r="BJ4" s="31">
         <v>0.99990000000000001</v>
       </c>
-      <c r="BK4" s="32">
+      <c r="BK4" s="31">
         <v>0.99939999999999996</v>
       </c>
-      <c r="BL4" s="32">
+      <c r="BL4" s="31">
         <v>0.99990000000000001</v>
       </c>
-      <c r="BM4" s="32">
+      <c r="BM4" s="31">
         <v>1</v>
       </c>
-      <c r="BN4" s="32">
+      <c r="BN4" s="31">
         <v>1</v>
       </c>
-      <c r="BO4" s="32">
+      <c r="BO4" s="31">
         <v>1</v>
       </c>
-      <c r="BP4" s="32">
+      <c r="BP4" s="31">
         <v>0.99990000000000001</v>
       </c>
-      <c r="BQ4" s="32">
+      <c r="BQ4" s="31">
         <v>1</v>
       </c>
-      <c r="BR4" s="32">
+      <c r="BR4" s="31">
         <v>0.99970000000000003</v>
       </c>
-      <c r="BS4" s="41"/>
-      <c r="BT4" t="s">
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BU4" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="BV4" s="7"/>
-      <c r="BW4" s="9"/>
-      <c r="BX4" s="9"/>
-      <c r="BY4" s="9"/>
-      <c r="BZ4" s="9"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="16">
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="36"/>
+      <c r="CB4" s="15">
         <v>17.22</v>
       </c>
-      <c r="CC4" s="16">
+      <c r="CC4" s="15">
         <v>1.7614730000000001</v>
       </c>
-      <c r="CD4" s="11"/>
-      <c r="CE4" s="11"/>
-      <c r="CF4" s="11"/>
-      <c r="CG4" s="11"/>
-      <c r="CH4" s="32" t="s">
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="31" t="s">
         <v>455</v>
       </c>
-      <c r="CI4" s="37">
+      <c r="CI4" s="34">
         <v>0.99982499999999996</v>
       </c>
-      <c r="CJ4" s="37">
+      <c r="CJ4" s="34">
         <v>0.99980999999999998</v>
       </c>
-      <c r="CK4" s="37">
+      <c r="CK4" s="34">
         <v>0.99984099999999998</v>
       </c>
-      <c r="CL4" s="37">
+      <c r="CL4" s="34">
         <v>0.99959500000000001</v>
       </c>
-      <c r="CM4" s="37">
+      <c r="CM4" s="34">
         <v>0.999471</v>
       </c>
-      <c r="CN4" s="37">
+      <c r="CN4" s="34">
         <v>0.99974099999999999</v>
       </c>
-      <c r="CO4" s="37">
+      <c r="CO4" s="34">
         <v>1</v>
       </c>
-      <c r="CP4" s="37">
+      <c r="CP4" s="34">
         <v>1</v>
       </c>
-      <c r="CQ4" s="37">
+      <c r="CQ4" s="34">
         <v>1</v>
       </c>
-      <c r="CR4" s="37">
+      <c r="CR4" s="34">
         <v>1</v>
       </c>
-      <c r="CS4" s="37">
+      <c r="CS4" s="34">
         <v>1</v>
       </c>
-      <c r="CT4" s="37">
+      <c r="CT4" s="34">
         <v>1</v>
       </c>
-      <c r="CU4" s="37">
+      <c r="CU4" s="34">
         <v>1</v>
       </c>
-      <c r="CV4" s="37">
+      <c r="CV4" s="34">
         <v>1</v>
       </c>
-      <c r="CW4" s="37">
+      <c r="CW4" s="34">
         <v>1</v>
       </c>
-      <c r="CX4" s="37">
+      <c r="CX4" s="34">
         <v>1</v>
       </c>
-      <c r="CY4" s="37">
+      <c r="CY4" s="34">
         <v>1</v>
       </c>
-      <c r="CZ4" s="37">
+      <c r="CZ4" s="34">
         <v>1</v>
       </c>
-      <c r="DA4" s="37">
+      <c r="DA4" s="34">
         <v>1</v>
       </c>
-      <c r="DB4" s="37">
+      <c r="DB4" s="34">
         <v>1</v>
       </c>
-      <c r="DC4" s="37">
+      <c r="DC4" s="34">
         <v>1</v>
       </c>
-      <c r="DD4" s="37">
+      <c r="DD4" s="34">
         <v>0.99990699999999999</v>
       </c>
-      <c r="DE4" s="37">
+      <c r="DE4" s="34">
         <v>0.999946</v>
       </c>
-      <c r="DF4" s="37">
+      <c r="DF4" s="34">
         <v>0.99985299999999999</v>
       </c>
-      <c r="DG4" s="37">
+      <c r="DG4" s="34">
         <v>0.99934400000000001</v>
       </c>
-      <c r="DH4" s="37">
+      <c r="DH4" s="34">
         <v>1</v>
       </c>
-      <c r="DI4" s="37">
+      <c r="DI4" s="34">
         <v>0.99919400000000003</v>
       </c>
-      <c r="DJ4" s="37">
+      <c r="DJ4" s="34">
         <v>1</v>
       </c>
-      <c r="DK4" s="37">
+      <c r="DK4" s="34">
         <v>1</v>
       </c>
-      <c r="DL4" s="37">
+      <c r="DL4" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>946247</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>220</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>97</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>123</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>99</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <v>99</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="22">
         <v>99</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="24">
         <v>82</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <v>56</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="22">
         <v>82</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="15">
         <v>42</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="15">
         <v>22</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="22">
         <v>33</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="15">
         <v>40</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="15">
         <v>34</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="15">
         <v>49</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Y5" s="12">
         <v>24.02</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="Z5" s="12">
         <v>59.99</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AB5" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="AC5" s="28" t="s">
+      <c r="AC5" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="AD5" s="28" t="s">
+      <c r="AD5" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AE5" s="32" t="s">
+      <c r="AE5" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="AF5" s="32" t="s">
+      <c r="AF5" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="AH5" s="32" t="s">
+      <c r="AH5" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="AI5" s="34" t="s">
+      <c r="AI5" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="32" t="s">
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="AL5" s="32" t="s">
+      <c r="AL5" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="AM5" s="32">
+      <c r="AM5" s="31">
         <v>1859</v>
       </c>
-      <c r="AN5" s="32">
+      <c r="AN5" s="31">
         <v>1843</v>
       </c>
-      <c r="AO5" s="32">
+      <c r="AO5" s="31">
         <v>615</v>
       </c>
-      <c r="AP5" s="32" t="s">
+      <c r="AP5" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="AQ5" s="32" t="s">
+      <c r="AQ5" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="AR5" s="32" t="s">
+      <c r="AR5" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9">
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8">
         <v>-1</v>
       </c>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="30">
+      <c r="AU5" s="29"/>
+      <c r="AV5" s="29">
         <v>1</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW5" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AY5" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="AZ5" s="30"/>
-      <c r="BA5" s="30" t="s">
+      <c r="AZ5" s="29"/>
+      <c r="BA5" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="BB5" s="30" t="s">
+      <c r="BB5" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="BC5" s="30" t="s">
+      <c r="BC5" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="BD5" s="30"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="11" t="s">
+      <c r="BD5" s="29"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="BG5" s="11" t="s">
+      <c r="BG5" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="BH5" s="36" t="s">
+      <c r="BH5" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="15">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="BJ5" s="32">
+      <c r="BJ5" s="31">
         <v>0.5696</v>
       </c>
-      <c r="BK5" s="32">
+      <c r="BK5" s="31">
         <v>0.13139999999999999</v>
       </c>
-      <c r="BL5" s="32">
+      <c r="BL5" s="31">
         <v>0.4859</v>
       </c>
-      <c r="BM5" s="32">
+      <c r="BM5" s="31">
         <v>0.54359999999999997</v>
       </c>
-      <c r="BN5" s="32">
+      <c r="BN5" s="31">
         <v>0.65859999999999996</v>
       </c>
-      <c r="BO5" s="32">
+      <c r="BO5" s="31">
         <v>0.62619999999999998</v>
       </c>
-      <c r="BP5" s="32">
+      <c r="BP5" s="31">
         <v>0.63629999999999998</v>
       </c>
-      <c r="BQ5" s="32">
+      <c r="BQ5" s="31">
         <v>0.56679999999999997</v>
       </c>
-      <c r="BR5" s="32">
+      <c r="BR5" s="31">
         <v>0.5655</v>
       </c>
-      <c r="BS5" s="41"/>
-      <c r="BT5" t="s">
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BU5" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="BV5" s="7" t="s">
+      <c r="BV5" s="42" t="s">
         <v>503</v>
       </c>
-      <c r="BW5" s="9" t="s">
+      <c r="BW5" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="BX5" s="9"/>
-      <c r="BY5" s="9"/>
-      <c r="BZ5" s="9"/>
-      <c r="CA5" s="39"/>
-      <c r="CB5" s="16">
+      <c r="BX5" s="8"/>
+      <c r="BY5" s="8"/>
+      <c r="BZ5" s="8"/>
+      <c r="CA5" s="36"/>
+      <c r="CB5" s="15">
         <v>15.93</v>
       </c>
-      <c r="CC5" s="16">
+      <c r="CC5" s="15">
         <v>1.539374</v>
       </c>
-      <c r="CD5" s="11"/>
-      <c r="CE5" s="11"/>
-      <c r="CF5" s="11"/>
-      <c r="CG5" s="11"/>
-      <c r="CH5" s="32" t="s">
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="10"/>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="CI5" s="37">
+      <c r="CI5" s="34">
         <v>0.47365499999999999</v>
       </c>
-      <c r="CJ5" s="37">
+      <c r="CJ5" s="34">
         <v>0.474132</v>
       </c>
-      <c r="CK5" s="37">
+      <c r="CK5" s="34">
         <v>0.47314699999999998</v>
       </c>
-      <c r="CL5" s="37">
+      <c r="CL5" s="34">
         <v>0.14783299999999999</v>
       </c>
-      <c r="CM5" s="37">
+      <c r="CM5" s="34">
         <v>0.152341</v>
       </c>
-      <c r="CN5" s="37">
+      <c r="CN5" s="34">
         <v>0.142539</v>
       </c>
-      <c r="CO5" s="37">
+      <c r="CO5" s="34">
         <v>0.51227699999999998</v>
       </c>
-      <c r="CP5" s="37">
+      <c r="CP5" s="34">
         <v>0.50641000000000003</v>
       </c>
-      <c r="CQ5" s="37">
+      <c r="CQ5" s="34">
         <v>0.51869200000000004</v>
       </c>
-      <c r="CR5" s="37">
+      <c r="CR5" s="34">
         <v>0.48776199999999997</v>
       </c>
-      <c r="CS5" s="37">
+      <c r="CS5" s="34">
         <v>0.493232</v>
       </c>
-      <c r="CT5" s="37">
+      <c r="CT5" s="34">
         <v>0.48358299999999999</v>
       </c>
-      <c r="CU5" s="37">
+      <c r="CU5" s="34">
         <v>0.55990399999999996</v>
       </c>
-      <c r="CV5" s="37">
+      <c r="CV5" s="34">
         <v>0.55675399999999997</v>
       </c>
-      <c r="CW5" s="37">
+      <c r="CW5" s="34">
         <v>0.56346200000000002</v>
       </c>
-      <c r="CX5" s="37">
+      <c r="CX5" s="34">
         <v>0.67381599999999997</v>
       </c>
-      <c r="CY5" s="37">
+      <c r="CY5" s="34">
         <v>0.68351799999999996</v>
       </c>
-      <c r="CZ5" s="37">
+      <c r="CZ5" s="34">
         <v>0.66547599999999996</v>
       </c>
-      <c r="DA5" s="37">
+      <c r="DA5" s="34">
         <v>0.62880400000000003</v>
       </c>
-      <c r="DB5" s="37">
+      <c r="DB5" s="34">
         <v>0.61950400000000005</v>
       </c>
-      <c r="DC5" s="37">
+      <c r="DC5" s="34">
         <v>0.63173100000000004</v>
       </c>
-      <c r="DD5" s="37">
+      <c r="DD5" s="34">
         <v>0.63758000000000004</v>
       </c>
-      <c r="DE5" s="37">
+      <c r="DE5" s="34">
         <v>0.64249800000000001</v>
       </c>
-      <c r="DF5" s="37">
+      <c r="DF5" s="34">
         <v>0.63081100000000001</v>
       </c>
-      <c r="DG5" s="37">
+      <c r="DG5" s="34">
         <v>0.57692299999999996</v>
       </c>
-      <c r="DH5" s="37">
+      <c r="DH5" s="34">
         <v>0.572438</v>
       </c>
-      <c r="DI5" s="37">
+      <c r="DI5" s="34">
         <v>0.57794800000000002</v>
       </c>
-      <c r="DJ5" s="37">
+      <c r="DJ5" s="34">
         <v>0.49023299999999997</v>
       </c>
-      <c r="DK5" s="37">
+      <c r="DK5" s="34">
         <v>0.48725000000000002</v>
       </c>
-      <c r="DL5" s="37">
+      <c r="DL5" s="34">
         <v>0.49334600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>952421</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>450</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>0</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>450</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>99</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <v>99</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="22">
         <v>99</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="24">
         <v>197</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <v>92</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="22">
         <v>161</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="15">
         <v>0</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="15">
         <v>0</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="22">
         <v>0</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="15">
         <v>197</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="15">
         <v>92</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="15">
         <v>161</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y6" s="12">
         <v>-0.85450000000000004</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z6" s="12">
         <v>58.82</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AA6" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="AB6" s="28" t="s">
+      <c r="AB6" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="AC6" s="28" t="s">
+      <c r="AC6" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="AD6" s="28" t="s">
+      <c r="AD6" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AE6" s="32" t="s">
+      <c r="AE6" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="AF6" s="32" t="s">
+      <c r="AF6" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="AG6" s="32" t="s">
+      <c r="AG6" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="AH6" s="32" t="s">
+      <c r="AH6" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="AI6" s="33" t="s">
+      <c r="AI6" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="32" t="s">
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="AL6" s="32" t="s">
+      <c r="AL6" s="31" t="s">
         <v>470</v>
       </c>
-      <c r="AM6" s="32">
+      <c r="AM6" s="31">
         <v>1198</v>
       </c>
-      <c r="AN6" s="32">
+      <c r="AN6" s="31">
         <v>1182</v>
       </c>
-      <c r="AO6" s="32">
+      <c r="AO6" s="31">
         <v>394</v>
       </c>
-      <c r="AP6" s="32" t="s">
+      <c r="AP6" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="AQ6" s="32" t="s">
+      <c r="AQ6" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="AR6" s="32" t="s">
+      <c r="AR6" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9">
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8">
         <v>-1</v>
       </c>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30">
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="29">
         <v>1</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AW6" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AX6" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AY6" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="AZ6" s="30"/>
-      <c r="BA6" s="30" t="s">
+      <c r="AZ6" s="29"/>
+      <c r="BA6" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="BB6" s="30" t="s">
+      <c r="BB6" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="BC6" s="30" t="s">
+      <c r="BC6" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="BD6" s="30"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11" t="s">
+      <c r="BD6" s="29"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="BG6" s="11" t="s">
+      <c r="BG6" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="BH6" s="36" t="s">
+      <c r="BH6" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BI6" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="BJ6" s="32">
+      <c r="BJ6" s="31">
         <v>0.93779999999999997</v>
       </c>
-      <c r="BK6" s="32">
+      <c r="BK6" s="31">
         <v>0.90649999999999997</v>
       </c>
-      <c r="BL6" s="32">
+      <c r="BL6" s="31">
         <v>0.95450000000000002</v>
       </c>
-      <c r="BM6" s="32">
+      <c r="BM6" s="31">
         <v>0.9355</v>
       </c>
-      <c r="BN6" s="32">
+      <c r="BN6" s="31">
         <v>0.91100000000000003</v>
       </c>
-      <c r="BO6" s="32">
+      <c r="BO6" s="31">
         <v>0.96060000000000001</v>
       </c>
-      <c r="BP6" s="32">
+      <c r="BP6" s="31">
         <v>0.94220000000000004</v>
       </c>
-      <c r="BQ6" s="32">
+      <c r="BQ6" s="31">
         <v>0.93889999999999996</v>
       </c>
-      <c r="BR6" s="32">
+      <c r="BR6" s="31">
         <v>0.91979999999999995</v>
       </c>
-      <c r="BS6" s="41"/>
-      <c r="BT6"/>
-      <c r="BU6"/>
-      <c r="BV6" s="7"/>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
-      <c r="CA6" s="39"/>
-      <c r="CB6" s="16">
+      <c r="BS6" s="38"/>
+      <c r="BT6" s="44"/>
+      <c r="BU6" s="44"/>
+      <c r="BV6" s="42"/>
+      <c r="BW6" s="8"/>
+      <c r="BX6" s="8"/>
+      <c r="BY6" s="8"/>
+      <c r="BZ6" s="8"/>
+      <c r="CA6" s="36"/>
+      <c r="CB6" s="15">
         <v>0.20100000000000001</v>
       </c>
-      <c r="CC6" s="16">
+      <c r="CC6" s="15">
         <v>-0.33422800000000003</v>
       </c>
-      <c r="CD6" s="11"/>
-      <c r="CE6" s="11"/>
-      <c r="CF6" s="11"/>
-      <c r="CG6" s="11"/>
-      <c r="CH6" s="32" t="s">
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="CI6" s="37">
+      <c r="CI6" s="34">
         <v>0.93398800000000004</v>
       </c>
-      <c r="CJ6" s="37">
+      <c r="CJ6" s="34">
         <v>0.93419600000000003</v>
       </c>
-      <c r="CK6" s="37">
+      <c r="CK6" s="34">
         <v>0.93376499999999996</v>
       </c>
-      <c r="CL6" s="37">
+      <c r="CL6" s="34">
         <v>0.909524</v>
       </c>
-      <c r="CM6" s="37">
+      <c r="CM6" s="34">
         <v>0.90987600000000002</v>
       </c>
-      <c r="CN6" s="37">
+      <c r="CN6" s="34">
         <v>0.90910999999999997</v>
       </c>
-      <c r="CO6" s="37">
+      <c r="CO6" s="34">
         <v>0.96222200000000002</v>
       </c>
-      <c r="CP6" s="37">
+      <c r="CP6" s="34">
         <v>0.96808499999999997</v>
       </c>
-      <c r="CQ6" s="37">
+      <c r="CQ6" s="34">
         <v>0.95581400000000005</v>
       </c>
-      <c r="CR6" s="37">
+      <c r="CR6" s="34">
         <v>0.93337199999999998</v>
       </c>
-      <c r="CS6" s="37">
+      <c r="CS6" s="34">
         <v>0.93722499999999997</v>
       </c>
-      <c r="CT6" s="37">
+      <c r="CT6" s="34">
         <v>0.93043399999999998</v>
       </c>
-      <c r="CU6" s="37">
+      <c r="CU6" s="34">
         <v>0.92869999999999997</v>
       </c>
-      <c r="CV6" s="37">
+      <c r="CV6" s="34">
         <v>0.93359800000000004</v>
       </c>
-      <c r="CW6" s="37">
+      <c r="CW6" s="34">
         <v>0.92317499999999997</v>
       </c>
-      <c r="CX6" s="37">
+      <c r="CX6" s="34">
         <v>0.91719899999999999</v>
       </c>
-      <c r="CY6" s="37">
+      <c r="CY6" s="34">
         <v>0.92127099999999995</v>
       </c>
-      <c r="CZ6" s="37">
+      <c r="CZ6" s="34">
         <v>0.91369</v>
       </c>
-      <c r="DA6" s="37">
+      <c r="DA6" s="34">
         <v>0.96487900000000004</v>
       </c>
-      <c r="DB6" s="37">
+      <c r="DB6" s="34">
         <v>0.96445700000000001</v>
       </c>
-      <c r="DC6" s="37">
+      <c r="DC6" s="34">
         <v>0.96501099999999995</v>
       </c>
-      <c r="DD6" s="37">
+      <c r="DD6" s="34">
         <v>0.94641500000000001</v>
       </c>
-      <c r="DE6" s="37">
+      <c r="DE6" s="34">
         <v>0.94723800000000002</v>
       </c>
-      <c r="DF6" s="37">
+      <c r="DF6" s="34">
         <v>0.94528299999999998</v>
       </c>
-      <c r="DG6" s="37">
+      <c r="DG6" s="34">
         <v>0.92241899999999999</v>
       </c>
-      <c r="DH6" s="37">
+      <c r="DH6" s="34">
         <v>0.91696100000000003</v>
       </c>
-      <c r="DI6" s="37">
+      <c r="DI6" s="34">
         <v>0.92366700000000002</v>
       </c>
-      <c r="DJ6" s="37">
+      <c r="DJ6" s="34">
         <v>0.92943399999999998</v>
       </c>
-      <c r="DK6" s="37">
+      <c r="DK6" s="34">
         <v>0.92</v>
       </c>
-      <c r="DL6" s="37">
+      <c r="DL6" s="34">
         <v>0.93927899999999998</v>
       </c>
     </row>
     <row r="7" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>953259</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>782</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>0</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>782</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>99</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="15">
         <v>99</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="22">
         <v>99</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="24">
         <v>374</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <v>162</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="22">
         <v>246</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="15">
         <v>0</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="15">
         <v>0</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="22">
         <v>0</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="15">
         <v>374</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="15">
         <v>162</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="15">
         <v>246</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="12">
         <v>-1.5309999999999999</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="12">
         <v>56.57</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AA7" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="AB7" s="28" t="s">
+      <c r="AB7" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="AC7" s="28" t="s">
+      <c r="AC7" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="AD7" s="28" t="s">
+      <c r="AD7" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AE7" s="32" t="s">
+      <c r="AE7" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="AF7" s="32" t="s">
+      <c r="AF7" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="AG7" s="32" t="s">
+      <c r="AG7" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="AH7" s="32" t="s">
+      <c r="AH7" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="AI7" s="33" t="s">
+      <c r="AI7" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="32" t="s">
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="AL7" s="32" t="s">
+      <c r="AL7" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="AM7" s="32">
+      <c r="AM7" s="31">
         <v>934</v>
       </c>
-      <c r="AN7" s="32">
+      <c r="AN7" s="31">
         <v>918</v>
       </c>
-      <c r="AO7" s="32">
+      <c r="AO7" s="31">
         <v>306</v>
       </c>
-      <c r="AP7" s="32" t="s">
+      <c r="AP7" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="AQ7" s="32" t="s">
+      <c r="AQ7" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="AR7" s="32" t="s">
+      <c r="AR7" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9">
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8">
         <v>-1</v>
       </c>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="30">
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29">
         <v>1</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AW7" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AX7" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AY7" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="AZ7" s="30"/>
-      <c r="BA7" s="30" t="s">
+      <c r="AZ7" s="29"/>
+      <c r="BA7" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="BB7" s="30" t="s">
+      <c r="BB7" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="BC7" s="30" t="s">
+      <c r="BC7" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="BD7" s="30"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11" t="s">
+      <c r="BD7" s="29"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="BG7" s="11" t="s">
+      <c r="BG7" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="BH7" s="36" t="s">
+      <c r="BH7" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" s="15">
         <v>0.73709999999999998</v>
       </c>
-      <c r="BJ7" s="32">
+      <c r="BJ7" s="31">
         <v>0.93779999999999997</v>
       </c>
-      <c r="BK7" s="32">
+      <c r="BK7" s="31">
         <v>0.90659999999999996</v>
       </c>
-      <c r="BL7" s="32">
+      <c r="BL7" s="31">
         <v>0.9546</v>
       </c>
-      <c r="BM7" s="32">
+      <c r="BM7" s="31">
         <v>0.93540000000000001</v>
       </c>
-      <c r="BN7" s="32">
+      <c r="BN7" s="31">
         <v>0.91090000000000004</v>
       </c>
-      <c r="BO7" s="32">
+      <c r="BO7" s="31">
         <v>0.96060000000000001</v>
       </c>
-      <c r="BP7" s="32">
+      <c r="BP7" s="31">
         <v>0.94230000000000003</v>
       </c>
-      <c r="BQ7" s="32">
+      <c r="BQ7" s="31">
         <v>0.93859999999999999</v>
       </c>
-      <c r="BR7" s="32">
+      <c r="BR7" s="31">
         <v>0.91979999999999995</v>
       </c>
-      <c r="BS7" s="41"/>
-      <c r="BT7"/>
-      <c r="BU7"/>
-      <c r="BV7" s="7"/>
-      <c r="BW7" s="9"/>
-      <c r="BX7" s="9"/>
-      <c r="BY7" s="9"/>
-      <c r="BZ7" s="9"/>
-      <c r="CA7" s="39"/>
-      <c r="CB7" s="16">
+      <c r="BS7" s="38"/>
+      <c r="BT7" s="44"/>
+      <c r="BU7" s="44"/>
+      <c r="BV7" s="42"/>
+      <c r="BW7" s="8"/>
+      <c r="BX7" s="8"/>
+      <c r="BY7" s="8"/>
+      <c r="BZ7" s="8"/>
+      <c r="CA7" s="36"/>
+      <c r="CB7" s="15">
         <v>6.585</v>
       </c>
-      <c r="CC7" s="16">
+      <c r="CC7" s="15">
         <v>0.42080000000000001</v>
       </c>
-      <c r="CD7" s="11"/>
-      <c r="CE7" s="11"/>
-      <c r="CF7" s="11"/>
-      <c r="CG7" s="11"/>
-      <c r="CH7" s="32" t="s">
+      <c r="CD7" s="10"/>
+      <c r="CE7" s="10"/>
+      <c r="CF7" s="10"/>
+      <c r="CG7" s="10"/>
+      <c r="CH7" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="CI7" s="37">
+      <c r="CI7" s="34">
         <v>0.93401000000000001</v>
       </c>
-      <c r="CJ7" s="37">
+      <c r="CJ7" s="34">
         <v>0.93419099999999999</v>
       </c>
-      <c r="CK7" s="37">
+      <c r="CK7" s="34">
         <v>0.93381800000000004</v>
       </c>
-      <c r="CL7" s="37">
+      <c r="CL7" s="34">
         <v>0.90951099999999996</v>
       </c>
-      <c r="CM7" s="37">
+      <c r="CM7" s="34">
         <v>0.90979200000000005</v>
       </c>
-      <c r="CN7" s="37">
+      <c r="CN7" s="34">
         <v>0.90917999999999999</v>
       </c>
-      <c r="CO7" s="37">
+      <c r="CO7" s="34">
         <v>0.96222200000000002</v>
       </c>
-      <c r="CP7" s="37">
+      <c r="CP7" s="34">
         <v>0.96808499999999997</v>
       </c>
-      <c r="CQ7" s="37">
+      <c r="CQ7" s="34">
         <v>0.95581400000000005</v>
       </c>
-      <c r="CR7" s="37">
+      <c r="CR7" s="34">
         <v>0.93347500000000005</v>
       </c>
-      <c r="CS7" s="37">
+      <c r="CS7" s="34">
         <v>0.93726799999999999</v>
       </c>
-      <c r="CT7" s="37">
+      <c r="CT7" s="34">
         <v>0.93058099999999999</v>
       </c>
-      <c r="CU7" s="37">
+      <c r="CU7" s="34">
         <v>0.92869999999999997</v>
       </c>
-      <c r="CV7" s="37">
+      <c r="CV7" s="34">
         <v>0.93359800000000004</v>
       </c>
-      <c r="CW7" s="37">
+      <c r="CW7" s="34">
         <v>0.92317499999999997</v>
       </c>
-      <c r="CX7" s="37">
+      <c r="CX7" s="34">
         <v>0.91730500000000004</v>
       </c>
-      <c r="CY7" s="37">
+      <c r="CY7" s="34">
         <v>0.92127099999999995</v>
       </c>
-      <c r="CZ7" s="37">
+      <c r="CZ7" s="34">
         <v>0.91389500000000001</v>
       </c>
-      <c r="DA7" s="37">
+      <c r="DA7" s="34">
         <v>0.964777</v>
       </c>
-      <c r="DB7" s="37">
+      <c r="DB7" s="34">
         <v>0.96448500000000004</v>
       </c>
-      <c r="DC7" s="37">
+      <c r="DC7" s="34">
         <v>0.96486799999999995</v>
       </c>
-      <c r="DD7" s="37">
+      <c r="DD7" s="34">
         <v>0.94644200000000001</v>
       </c>
-      <c r="DE7" s="37">
+      <c r="DE7" s="34">
         <v>0.94726100000000002</v>
       </c>
-      <c r="DF7" s="37">
+      <c r="DF7" s="34">
         <v>0.94531500000000002</v>
       </c>
-      <c r="DG7" s="37">
+      <c r="DG7" s="34">
         <v>0.92257199999999995</v>
       </c>
-      <c r="DH7" s="37">
+      <c r="DH7" s="34">
         <v>0.91696100000000003</v>
       </c>
-      <c r="DI7" s="37">
+      <c r="DI7" s="34">
         <v>0.92385200000000001</v>
       </c>
-      <c r="DJ7" s="37">
+      <c r="DJ7" s="34">
         <v>0.929898</v>
       </c>
-      <c r="DK7" s="37">
+      <c r="DK7" s="34">
         <v>0.92</v>
       </c>
-      <c r="DL7" s="37">
+      <c r="DL7" s="34">
         <v>0.94022799999999995</v>
       </c>
     </row>
     <row r="8" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>2194700</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>2</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>0</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>2</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="22">
         <v>6</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="24">
         <v>0</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="25">
         <v>0</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="22">
         <v>2</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="15">
         <v>0</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="15">
         <v>0</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="22">
         <v>0</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="15">
         <v>0</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="15">
         <v>0</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="15">
         <v>2</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="X8" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8" s="12">
         <v>7.36</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="12">
         <v>60</v>
       </c>
-      <c r="AA8" s="13" t="s">
+      <c r="AA8" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="AB8" s="28" t="s">
+      <c r="AB8" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="AC8" s="28" t="s">
+      <c r="AC8" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="AD8" s="28" t="s">
+      <c r="AD8" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AE8" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="AF8" s="32" t="s">
+      <c r="AF8" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="AG8" s="32" t="s">
+      <c r="AG8" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="AI8" s="33" t="s">
+      <c r="AI8" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="32" t="s">
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="AL8" s="32" t="s">
+      <c r="AL8" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="AM8" s="32">
+      <c r="AM8" s="31">
         <v>76</v>
       </c>
-      <c r="AN8" s="32">
+      <c r="AN8" s="31">
         <v>50</v>
       </c>
-      <c r="AO8" s="32">
+      <c r="AO8" s="31">
         <v>17</v>
       </c>
-      <c r="AP8" s="32" t="s">
+      <c r="AP8" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="AQ8" s="32" t="s">
+      <c r="AQ8" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="AR8" s="32" t="s">
+      <c r="AR8" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9">
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8">
         <v>-1</v>
       </c>
-      <c r="AU8" s="30"/>
-      <c r="AV8" s="30">
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29">
         <v>1</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AW8" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AX8" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AY8" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="AZ8" s="30"/>
-      <c r="BA8" s="30" t="s">
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="BB8" s="30" t="s">
+      <c r="BB8" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="BC8" s="30" t="s">
+      <c r="BC8" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="BD8" s="30"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11" t="s">
+      <c r="BD8" s="29"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="BG8" s="11" t="s">
+      <c r="BG8" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="BH8" s="36" t="s">
+      <c r="BH8" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BI8" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="BJ8" s="32">
+      <c r="BJ8" s="31">
         <v>0.99609999999999999</v>
       </c>
-      <c r="BK8" s="32">
+      <c r="BK8" s="31">
         <v>1</v>
       </c>
-      <c r="BL8" s="32">
+      <c r="BL8" s="31">
         <v>1</v>
       </c>
-      <c r="BM8" s="32">
+      <c r="BM8" s="31">
         <v>0.98529999999999995</v>
       </c>
-      <c r="BN8" s="32">
+      <c r="BN8" s="31">
         <v>1</v>
       </c>
-      <c r="BO8" s="32">
+      <c r="BO8" s="31">
         <v>1</v>
       </c>
-      <c r="BP8" s="32">
+      <c r="BP8" s="31">
         <v>0.99370000000000003</v>
       </c>
-      <c r="BQ8" s="32">
+      <c r="BQ8" s="31">
         <v>1</v>
       </c>
-      <c r="BR8" s="32">
+      <c r="BR8" s="31">
         <v>1</v>
       </c>
-      <c r="BS8" s="41"/>
-      <c r="BT8" t="s">
+      <c r="BS8" s="38"/>
+      <c r="BT8" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BU8" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="BV8" s="7"/>
-      <c r="BW8" s="9"/>
-      <c r="BX8" s="9"/>
-      <c r="BY8" s="9"/>
-      <c r="BZ8" s="9"/>
-      <c r="CA8" s="39"/>
-      <c r="CB8" s="16">
+      <c r="BV8" s="42"/>
+      <c r="BW8" s="8"/>
+      <c r="BX8" s="8"/>
+      <c r="BY8" s="8"/>
+      <c r="BZ8" s="8"/>
+      <c r="CA8" s="36"/>
+      <c r="CB8" s="15">
         <v>13.03</v>
       </c>
-      <c r="CC8" s="16">
+      <c r="CC8" s="15">
         <v>1.0893090000000001</v>
       </c>
-      <c r="CD8" s="11"/>
-      <c r="CE8" s="11"/>
-      <c r="CF8" s="11"/>
-      <c r="CG8" s="11"/>
-      <c r="CH8" s="32" t="s">
+      <c r="CD8" s="10"/>
+      <c r="CE8" s="10"/>
+      <c r="CF8" s="10"/>
+      <c r="CG8" s="10"/>
+      <c r="CH8" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="CI8" s="37">
+      <c r="CI8" s="34">
         <v>0.99995699999999998</v>
       </c>
-      <c r="CJ8" s="37">
+      <c r="CJ8" s="34">
         <v>0.99995800000000001</v>
       </c>
-      <c r="CK8" s="37">
+      <c r="CK8" s="34">
         <v>0.99995599999999996</v>
       </c>
-      <c r="CL8" s="37">
+      <c r="CL8" s="34">
         <v>0.99995100000000003</v>
       </c>
-      <c r="CM8" s="37">
+      <c r="CM8" s="34">
         <v>0.99995500000000004</v>
       </c>
-      <c r="CN8" s="37">
+      <c r="CN8" s="34">
         <v>0.99994700000000003</v>
       </c>
-      <c r="CO8" s="37">
+      <c r="CO8" s="34">
         <v>0.99887899999999996</v>
       </c>
-      <c r="CP8" s="37">
+      <c r="CP8" s="34">
         <v>0.99785400000000002</v>
       </c>
-      <c r="CQ8" s="37">
+      <c r="CQ8" s="34">
         <v>1</v>
       </c>
-      <c r="CR8" s="37">
+      <c r="CR8" s="34">
         <v>0.99992599999999998</v>
       </c>
-      <c r="CS8" s="37">
+      <c r="CS8" s="34">
         <v>0.99982700000000002</v>
       </c>
-      <c r="CT8" s="37">
+      <c r="CT8" s="34">
         <v>1</v>
       </c>
-      <c r="CU8" s="37">
+      <c r="CU8" s="34">
         <v>1</v>
       </c>
-      <c r="CV8" s="37">
+      <c r="CV8" s="34">
         <v>1</v>
       </c>
-      <c r="CW8" s="37">
+      <c r="CW8" s="34">
         <v>1</v>
       </c>
-      <c r="CX8" s="37">
+      <c r="CX8" s="34">
         <v>1</v>
       </c>
-      <c r="CY8" s="37">
+      <c r="CY8" s="34">
         <v>1</v>
       </c>
-      <c r="CZ8" s="37">
+      <c r="CZ8" s="34">
         <v>1</v>
       </c>
-      <c r="DA8" s="37">
+      <c r="DA8" s="34">
         <v>1</v>
       </c>
-      <c r="DB8" s="37">
+      <c r="DB8" s="34">
         <v>1</v>
       </c>
-      <c r="DC8" s="37">
+      <c r="DC8" s="34">
         <v>1</v>
       </c>
-      <c r="DD8" s="37">
+      <c r="DD8" s="34">
         <v>0.99996799999999997</v>
       </c>
-      <c r="DE8" s="37">
+      <c r="DE8" s="34">
         <v>1</v>
       </c>
-      <c r="DF8" s="37">
+      <c r="DF8" s="34">
         <v>0.99992400000000004</v>
       </c>
-      <c r="DG8" s="37">
+      <c r="DG8" s="34">
         <v>1</v>
       </c>
-      <c r="DH8" s="37">
+      <c r="DH8" s="34">
         <v>1</v>
       </c>
-      <c r="DI8" s="37">
+      <c r="DI8" s="34">
         <v>1</v>
       </c>
-      <c r="DJ8" s="37">
+      <c r="DJ8" s="34">
         <v>1</v>
       </c>
-      <c r="DK8" s="37">
+      <c r="DK8" s="34">
         <v>1</v>
       </c>
-      <c r="DL8" s="37">
+      <c r="DL8" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="BF9" s="42" t="s">
+      <c r="BF9" s="39" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6576,4 +7011,3208 @@
     <ignoredError sqref="BV5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66470115-04E3-4CF1-BD62-689D6E4AE86A}">
+  <dimension ref="A1:AY27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="16" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="44.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" customWidth="1"/>
+    <col min="42" max="42" width="16.5703125" customWidth="1"/>
+    <col min="44" max="44" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW1" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY1" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1632544</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1632947</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15">
+        <v>78</v>
+      </c>
+      <c r="L2" s="15">
+        <v>78</v>
+      </c>
+      <c r="M2" s="15">
+        <v>78</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z2" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1632948</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1633613</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>78</v>
+      </c>
+      <c r="L3" s="15">
+        <v>78</v>
+      </c>
+      <c r="M3" s="15">
+        <v>78</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y3" s="45" t="s">
+        <v>616</v>
+      </c>
+      <c r="Z3" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1633614</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1634150</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="H4" s="15">
+        <v>2</v>
+      </c>
+      <c r="I4" s="15">
+        <v>2</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>77</v>
+      </c>
+      <c r="L4" s="15">
+        <v>27</v>
+      </c>
+      <c r="M4" s="15">
+        <v>78</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y4" s="45" t="s">
+        <v>618</v>
+      </c>
+      <c r="Z4" s="45" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="29"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1634151</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1634389</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="H5" s="15">
+        <v>2</v>
+      </c>
+      <c r="I5" s="15">
+        <v>4</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>40</v>
+      </c>
+      <c r="L5" s="15">
+        <v>3</v>
+      </c>
+      <c r="M5" s="15">
+        <v>67</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y5" s="45" t="s">
+        <v>620</v>
+      </c>
+      <c r="Z5" s="45" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="29"/>
+      <c r="AT5" s="29"/>
+      <c r="AU5" s="29"/>
+      <c r="AV5" s="29"/>
+      <c r="AW5" s="29"/>
+      <c r="AX5" s="29"/>
+      <c r="AY5" s="29"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1634390</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1634877</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15">
+        <v>4</v>
+      </c>
+      <c r="J6" s="15">
+        <v>2</v>
+      </c>
+      <c r="K6" s="15">
+        <v>40</v>
+      </c>
+      <c r="L6" s="15">
+        <v>4</v>
+      </c>
+      <c r="M6" s="15">
+        <v>7</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y6" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z6" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN6" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="AO6" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="29"/>
+      <c r="AT6" s="29"/>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="29"/>
+      <c r="AX6" s="29"/>
+      <c r="AY6" s="29"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1641412</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1641863</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="H7" s="15">
+        <v>2</v>
+      </c>
+      <c r="I7" s="15">
+        <v>2</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>7</v>
+      </c>
+      <c r="L7" s="15">
+        <v>9</v>
+      </c>
+      <c r="M7" s="15">
+        <v>78</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y7" s="45" t="s">
+        <v>624</v>
+      </c>
+      <c r="Z7" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="AO7" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1641864</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1642174</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>78</v>
+      </c>
+      <c r="L8" s="15">
+        <v>78</v>
+      </c>
+      <c r="M8" s="15">
+        <v>78</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y8" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z8" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN8" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="AO8" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="29"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="29"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1642175</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1642758</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>78</v>
+      </c>
+      <c r="L9" s="15">
+        <v>78</v>
+      </c>
+      <c r="M9" s="15">
+        <v>78</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y9" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z9" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN9" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="AO9" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="29"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1675828</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1676288</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>2</v>
+      </c>
+      <c r="K10" s="15">
+        <v>78</v>
+      </c>
+      <c r="L10" s="15">
+        <v>52</v>
+      </c>
+      <c r="M10" s="15">
+        <v>19</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y10" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="Z10" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN10" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AO10" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="29"/>
+      <c r="AW10" s="29"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="29"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1702637</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1703039</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H11" s="15">
+        <v>2</v>
+      </c>
+      <c r="I11" s="15">
+        <v>2</v>
+      </c>
+      <c r="J11" s="15">
+        <v>5</v>
+      </c>
+      <c r="K11" s="15">
+        <v>15</v>
+      </c>
+      <c r="L11" s="15">
+        <v>12</v>
+      </c>
+      <c r="M11" s="15">
+        <v>1</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y11" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z11" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN11" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO11" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1703040</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1703382</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2</v>
+      </c>
+      <c r="I12" s="15">
+        <v>2</v>
+      </c>
+      <c r="J12" s="15">
+        <v>5</v>
+      </c>
+      <c r="K12" s="15">
+        <v>15</v>
+      </c>
+      <c r="L12" s="15">
+        <v>12</v>
+      </c>
+      <c r="M12" s="15">
+        <v>1</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y12" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z12" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN12" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO12" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1703383</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1703723</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H13" s="15">
+        <v>2</v>
+      </c>
+      <c r="I13" s="15">
+        <v>2</v>
+      </c>
+      <c r="J13" s="15">
+        <v>3</v>
+      </c>
+      <c r="K13" s="15">
+        <v>28</v>
+      </c>
+      <c r="L13" s="15">
+        <v>27</v>
+      </c>
+      <c r="M13" s="15">
+        <v>13</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y13" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z13" s="45" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN13" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO13" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1703724</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1703989</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15">
+        <v>2</v>
+      </c>
+      <c r="J14" s="15">
+        <v>3</v>
+      </c>
+      <c r="K14" s="15">
+        <v>77</v>
+      </c>
+      <c r="L14" s="15">
+        <v>73</v>
+      </c>
+      <c r="M14" s="15">
+        <v>46</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y14" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z14" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN14" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO14" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1703990</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1704184</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H15" s="15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="15">
+        <v>75</v>
+      </c>
+      <c r="L15" s="15">
+        <v>59</v>
+      </c>
+      <c r="M15" s="15">
+        <v>56</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y15" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z15" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN15" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO15" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="29"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1704185</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1704413</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H16" s="15">
+        <v>2</v>
+      </c>
+      <c r="I16" s="15">
+        <v>2</v>
+      </c>
+      <c r="J16" s="15">
+        <v>3</v>
+      </c>
+      <c r="K16" s="15">
+        <v>78</v>
+      </c>
+      <c r="L16" s="15">
+        <v>68</v>
+      </c>
+      <c r="M16" s="15">
+        <v>48</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y16" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z16" s="45" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN16" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO16" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1704414</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1704728</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H17" s="15">
+        <v>2</v>
+      </c>
+      <c r="I17" s="15">
+        <v>2</v>
+      </c>
+      <c r="J17" s="15">
+        <v>3</v>
+      </c>
+      <c r="K17" s="15">
+        <v>63</v>
+      </c>
+      <c r="L17" s="15">
+        <v>60</v>
+      </c>
+      <c r="M17" s="15">
+        <v>17</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y17" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z17" s="45" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN17" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO17" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1705372</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1706002</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>4</v>
+      </c>
+      <c r="K18" s="15">
+        <v>70</v>
+      </c>
+      <c r="L18" s="15">
+        <v>4</v>
+      </c>
+      <c r="M18" s="15">
+        <v>2</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y18" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z18" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN18" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1707158</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1707834</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H19" s="15">
+        <v>2</v>
+      </c>
+      <c r="I19" s="15">
+        <v>2</v>
+      </c>
+      <c r="J19" s="15">
+        <v>4</v>
+      </c>
+      <c r="K19" s="15">
+        <v>75</v>
+      </c>
+      <c r="L19" s="15">
+        <v>55</v>
+      </c>
+      <c r="M19" s="15">
+        <v>2</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y19" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="Z19" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN19" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO19" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1707919</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1708515</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>2</v>
+      </c>
+      <c r="J20" s="15">
+        <v>5</v>
+      </c>
+      <c r="K20" s="15">
+        <v>17</v>
+      </c>
+      <c r="L20" s="15">
+        <v>31</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y20" s="45" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z20" s="45" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN20" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO20" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1708524</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1708995</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H21" s="15">
+        <v>3</v>
+      </c>
+      <c r="I21" s="15">
+        <v>2</v>
+      </c>
+      <c r="J21" s="15">
+        <v>5</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>38</v>
+      </c>
+      <c r="M21" s="15">
+        <v>1</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y21" s="45" t="s">
+        <v>624</v>
+      </c>
+      <c r="Z21" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN21" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO21" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1708996</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1709316</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>78</v>
+      </c>
+      <c r="L22" s="15">
+        <v>78</v>
+      </c>
+      <c r="M22" s="15">
+        <v>78</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y22" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z22" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN22" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO22" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1709317</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1709910</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>78</v>
+      </c>
+      <c r="L23" s="15">
+        <v>78</v>
+      </c>
+      <c r="M23" s="15">
+        <v>78</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y23" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z23" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN23" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO23" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="29"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="29"/>
+      <c r="AV23" s="29"/>
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1711994</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1712677</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
+      <c r="I24" s="15">
+        <v>2</v>
+      </c>
+      <c r="J24" s="15">
+        <v>5</v>
+      </c>
+      <c r="K24" s="15">
+        <v>6</v>
+      </c>
+      <c r="L24" s="15">
+        <v>7</v>
+      </c>
+      <c r="M24" s="15">
+        <v>23</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y24" s="45" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z24" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN24" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO24" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1721345</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1721961</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H25" s="15">
+        <v>2</v>
+      </c>
+      <c r="I25" s="15">
+        <v>2</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4</v>
+      </c>
+      <c r="K25" s="15">
+        <v>75</v>
+      </c>
+      <c r="L25" s="15">
+        <v>59</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y25" s="45" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z25" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN25" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO25" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR25" s="29"/>
+      <c r="AS25" s="29"/>
+      <c r="AT25" s="29"/>
+      <c r="AU25" s="29"/>
+      <c r="AV25" s="29"/>
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1732203</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1732775</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H26" s="15">
+        <v>2</v>
+      </c>
+      <c r="I26" s="15">
+        <v>2</v>
+      </c>
+      <c r="J26" s="15">
+        <v>3</v>
+      </c>
+      <c r="K26" s="15">
+        <v>17</v>
+      </c>
+      <c r="L26" s="15">
+        <v>57</v>
+      </c>
+      <c r="M26" s="15">
+        <v>6</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y26" s="45" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z26" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN26" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="AO26" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR26" s="29"/>
+      <c r="AS26" s="29"/>
+      <c r="AT26" s="29"/>
+      <c r="AU26" s="29"/>
+      <c r="AV26" s="29"/>
+      <c r="AW26" s="29"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1734438</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1735087</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H27" s="15">
+        <v>2</v>
+      </c>
+      <c r="I27" s="15">
+        <v>2</v>
+      </c>
+      <c r="J27" s="15">
+        <v>3</v>
+      </c>
+      <c r="K27" s="15">
+        <v>13</v>
+      </c>
+      <c r="L27" s="15">
+        <v>21</v>
+      </c>
+      <c r="M27" s="15">
+        <v>5</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y27" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z27" s="45" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN27" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="AO27" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="29"/>
+      <c r="AT27" s="29"/>
+      <c r="AU27" s="29"/>
+      <c r="AV27" s="29"/>
+      <c r="AW27" s="29"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Z2" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/conf/README_report_fields.xlsx
+++ b/conf/README_report_fields.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\xx92\vdp3.0\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E7C880-52F6-4FB6-A5BC-98E0CE67036E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E8EC51-31AB-48C1-92B0-8B995D49AD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="393" activeTab="3" xr2:uid="{06F1E332-6514-4879-BB67-A2635524FFAE}"/>
+    <workbookView xWindow="38280" yWindow="-3675" windowWidth="15990" windowHeight="24840" tabRatio="612" xr2:uid="{06F1E332-6514-4879-BB67-A2635524FFAE}"/>
   </bookViews>
   <sheets>
     <sheet name="SNV" sheetId="1" r:id="rId1"/>
     <sheet name="CNV" sheetId="2" r:id="rId2"/>
     <sheet name="SNV_Exmpl" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="CNV_Example" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2531,9 +2531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535661A1-0344-4357-B34F-C85A458867F2}">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4045,9 +4043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A9F224-C1CB-4F9B-B639-1AEA762AE5A6}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4413,7 +4409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A3217D-9748-4C25-B8E7-010430763094}">
   <dimension ref="A1:DL9"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7017,9 +7013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66470115-04E3-4CF1-BD62-689D6E4AE86A}">
   <dimension ref="A1:AY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/conf/README_report_fields.xlsx
+++ b/conf/README_report_fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\xx92\vdp3.0\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E8EC51-31AB-48C1-92B0-8B995D49AD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB8B57-C87B-4FA0-9601-D41F69BC8552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-3675" windowWidth="15990" windowHeight="24840" tabRatio="612" xr2:uid="{06F1E332-6514-4879-BB67-A2635524FFAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="612" xr2:uid="{06F1E332-6514-4879-BB67-A2635524FFAE}"/>
   </bookViews>
   <sheets>
     <sheet name="SNV" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="645">
   <si>
     <t>chr</t>
   </si>
@@ -1134,9 +1134,6 @@
   </si>
   <si>
     <t>affected splice region (splice_donor_5th_base_variant, splice_donor_region_variant, splice_donor_region_variant, splice_polypyrimidine_tract_variant, splice_polypyrimidine_tract_variant)</t>
-  </si>
-  <si>
-    <t>Consequene</t>
   </si>
   <si>
     <t>end</t>
@@ -2531,7 +2528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535661A1-0344-4357-B34F-C85A458867F2}">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3406,7 +3405,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>366</v>
+        <v>26</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>203</v>
@@ -4043,7 +4042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A9F224-C1CB-4F9B-B639-1AEA762AE5A6}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4081,18 +4080,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" t="s">
         <v>367</v>
-      </c>
-      <c r="B4" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" t="s">
         <v>369</v>
-      </c>
-      <c r="B5" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,31 +4099,31 @@
         <v>356</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" t="s">
         <v>386</v>
-      </c>
-      <c r="B7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" t="s">
         <v>388</v>
-      </c>
-      <c r="B8" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
         <v>371</v>
-      </c>
-      <c r="B9" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4132,7 +4131,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4148,7 +4147,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4196,7 +4195,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4203,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4211,7 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4219,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4227,7 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4235,7 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4243,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4251,7 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4259,7 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4268,7 +4267,7 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4477,49 +4476,49 @@
         <v>12</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>404</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>18</v>
@@ -4803,19 +4802,19 @@
     </row>
     <row r="2" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" s="8">
         <v>939398</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="18" t="s">
         <v>407</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>408</v>
       </c>
       <c r="F2" s="12">
         <v>161</v>
@@ -4827,13 +4826,13 @@
         <v>30</v>
       </c>
       <c r="I2" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>409</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>410</v>
       </c>
       <c r="L2" s="15">
         <v>91</v>
@@ -4872,7 +4871,7 @@
         <v>30</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y2" s="12">
         <v>-1.96</v>
@@ -4881,52 +4880,52 @@
         <v>56.12</v>
       </c>
       <c r="AA2" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB2" s="27" t="s">
         <v>412</v>
-      </c>
-      <c r="AB2" s="27" t="s">
-        <v>413</v>
       </c>
       <c r="AC2" s="27" t="s">
         <v>210</v>
       </c>
       <c r="AD2" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE2" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="AE2" s="31" t="s">
+      <c r="AF2" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AG2" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AH2" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="AH2" s="31" t="s">
+      <c r="AI2" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="AJ2" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="AK2" s="31" t="s">
         <v>418</v>
-      </c>
-      <c r="AI2" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ2" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="AK2" s="31" t="s">
-        <v>419</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN2" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="AN2" s="31" t="s">
+      <c r="AO2" s="31" t="s">
         <v>421</v>
-      </c>
-      <c r="AO2" s="31" t="s">
-        <v>422</v>
       </c>
       <c r="AP2" s="31"/>
       <c r="AQ2" s="31"/>
       <c r="AR2" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AS2" s="8"/>
       <c r="AT2" s="8">
@@ -4937,33 +4936,33 @@
         <v>1</v>
       </c>
       <c r="AW2" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="AX2" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>425</v>
       </c>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="29"/>
       <c r="BA2" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="BB2" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="BB2" s="29" t="s">
-        <v>427</v>
-      </c>
       <c r="BC2" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BD2" s="29"/>
       <c r="BE2" s="10"/>
       <c r="BF2" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BG2" s="10"/>
       <c r="BH2" s="8">
         <v>38</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BJ2" s="31">
         <v>4.0250000000000001E-2</v>
@@ -5001,26 +5000,26 @@
       <c r="BY2" s="8"/>
       <c r="BZ2" s="8"/>
       <c r="CA2" s="36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="CB2" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="CC2" s="15"/>
       <c r="CD2" s="10">
         <v>769497</v>
       </c>
       <c r="CE2" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="CF2" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="CF2" s="10" t="s">
+      <c r="CG2" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="CG2" s="10" t="s">
-        <v>431</v>
-      </c>
       <c r="CH2" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="CI2" s="34">
         <v>4.8854799999999997E-2</v>
@@ -5115,19 +5114,19 @@
     </row>
     <row r="3" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" s="8">
         <v>939436</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>433</v>
-      </c>
       <c r="E3" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F3" s="12">
         <v>243</v>
@@ -5139,13 +5138,13 @@
         <v>24</v>
       </c>
       <c r="I3" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>409</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>410</v>
       </c>
       <c r="L3" s="15">
         <v>333</v>
@@ -5184,14 +5183,14 @@
         <v>23</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12">
         <v>59</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AB3" s="27" t="s">
         <v>223</v>
@@ -5200,47 +5199,47 @@
         <v>210</v>
       </c>
       <c r="AD3" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE3" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="AE3" s="31" t="s">
+      <c r="AF3" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="AF3" s="31" t="s">
-        <v>416</v>
-      </c>
       <c r="AG3" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AH3" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI3" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AJ3" s="32"/>
       <c r="AK3" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="AL3" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="AL3" s="31" t="s">
+      <c r="AM3" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="AM3" s="31" t="s">
+      <c r="AN3" s="31" t="s">
         <v>439</v>
-      </c>
-      <c r="AN3" s="31" t="s">
-        <v>440</v>
       </c>
       <c r="AO3" s="31">
         <v>228</v>
       </c>
       <c r="AP3" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="AQ3" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="AQ3" s="31" t="s">
+      <c r="AR3" s="31" t="s">
         <v>442</v>
-      </c>
-      <c r="AR3" s="31" t="s">
-        <v>443</v>
       </c>
       <c r="AS3" s="8"/>
       <c r="AT3" s="8">
@@ -5251,30 +5250,30 @@
         <v>1</v>
       </c>
       <c r="AW3" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="AX3" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AX3" s="8" t="s">
-        <v>425</v>
-      </c>
       <c r="AY3" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AZ3" s="29"/>
       <c r="BA3" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BB3" s="29"/>
       <c r="BC3" s="29"/>
       <c r="BD3" s="29"/>
       <c r="BE3" s="10"/>
       <c r="BF3" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BG3" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="BH3" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BI3" s="15">
         <v>0.25419999999999998</v>
@@ -5316,7 +5315,7 @@
       <c r="BZ3" s="8"/>
       <c r="CA3" s="36"/>
       <c r="CB3" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="CC3" s="15"/>
       <c r="CD3" s="10"/>
@@ -5324,7 +5323,7 @@
       <c r="CF3" s="10"/>
       <c r="CG3" s="10"/>
       <c r="CH3" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="CI3" s="34">
         <v>2.10192E-4</v>
@@ -5419,19 +5418,19 @@
     </row>
     <row r="4" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" s="8">
         <v>942451</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F4" s="12">
         <v>20</v>
@@ -5443,13 +5442,13 @@
         <v>20</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L4" s="15">
         <v>30</v>
@@ -5488,7 +5487,7 @@
         <v>9</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y4" s="12">
         <v>6.13</v>
@@ -5497,7 +5496,7 @@
         <v>60</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AB4" s="27" t="s">
         <v>248</v>
@@ -5506,29 +5505,29 @@
         <v>243</v>
       </c>
       <c r="AD4" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE4" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AF4" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="AF4" s="31" t="s">
-        <v>416</v>
-      </c>
       <c r="AG4" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AH4" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI4" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AJ4" s="32"/>
       <c r="AK4" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="AL4" s="31" t="s">
         <v>446</v>
-      </c>
-      <c r="AL4" s="31" t="s">
-        <v>447</v>
       </c>
       <c r="AM4" s="31">
         <v>1117</v>
@@ -5540,13 +5539,13 @@
         <v>343</v>
       </c>
       <c r="AP4" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="AQ4" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="AQ4" s="31" t="s">
+      <c r="AR4" s="31" t="s">
         <v>449</v>
-      </c>
-      <c r="AR4" s="31" t="s">
-        <v>450</v>
       </c>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8">
@@ -5557,36 +5556,36 @@
         <v>1</v>
       </c>
       <c r="AW4" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="AX4" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AX4" s="8" t="s">
-        <v>425</v>
-      </c>
       <c r="AY4" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AZ4" s="29"/>
       <c r="BA4" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BB4" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BC4" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BD4" s="29"/>
       <c r="BE4" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="BF4" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="BF4" s="10" t="s">
+      <c r="BG4" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="BG4" s="10" t="s">
-        <v>453</v>
-      </c>
       <c r="BH4" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BI4" s="15">
         <v>0.21310000000000001</v>
@@ -5620,10 +5619,10 @@
       </c>
       <c r="BS4" s="38"/>
       <c r="BT4" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BU4" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BV4" s="42"/>
       <c r="BW4" s="8"/>
@@ -5642,7 +5641,7 @@
       <c r="CF4" s="10"/>
       <c r="CG4" s="10"/>
       <c r="CH4" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="CI4" s="34">
         <v>0.99982499999999996</v>
@@ -5737,19 +5736,19 @@
     </row>
     <row r="5" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5" s="8">
         <v>946247</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>407</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>408</v>
       </c>
       <c r="F5" s="12">
         <v>220</v>
@@ -5761,13 +5760,13 @@
         <v>123</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L5" s="15">
         <v>99</v>
@@ -5806,7 +5805,7 @@
         <v>49</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y5" s="12">
         <v>24.02</v>
@@ -5815,7 +5814,7 @@
         <v>59.99</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB5" s="27" t="s">
         <v>273</v>
@@ -5824,29 +5823,29 @@
         <v>260</v>
       </c>
       <c r="AD5" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE5" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="AE5" s="31" t="s">
+      <c r="AF5" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="AG5" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="AF5" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AH5" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI5" s="33" t="s">
         <v>459</v>
-      </c>
-      <c r="AH5" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI5" s="33" t="s">
-        <v>460</v>
       </c>
       <c r="AJ5" s="32"/>
       <c r="AK5" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="AL5" s="31" t="s">
         <v>461</v>
-      </c>
-      <c r="AL5" s="31" t="s">
-        <v>462</v>
       </c>
       <c r="AM5" s="31">
         <v>1859</v>
@@ -5858,13 +5857,13 @@
         <v>615</v>
       </c>
       <c r="AP5" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="AQ5" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="AQ5" s="31" t="s">
+      <c r="AR5" s="31" t="s">
         <v>464</v>
-      </c>
-      <c r="AR5" s="31" t="s">
-        <v>465</v>
       </c>
       <c r="AS5" s="8"/>
       <c r="AT5" s="8">
@@ -5875,34 +5874,34 @@
         <v>1</v>
       </c>
       <c r="AW5" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AX5" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AY5" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AZ5" s="29"/>
       <c r="BA5" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BB5" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BC5" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BD5" s="29"/>
       <c r="BE5" s="10"/>
       <c r="BF5" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BG5" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BH5" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BI5" s="15">
         <v>2.0000000000000001E-4</v>
@@ -5936,16 +5935,16 @@
       </c>
       <c r="BS5" s="38"/>
       <c r="BT5" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BU5" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BV5" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BW5" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BX5" s="8"/>
       <c r="BY5" s="8"/>
@@ -5962,7 +5961,7 @@
       <c r="CF5" s="10"/>
       <c r="CG5" s="10"/>
       <c r="CH5" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="CI5" s="34">
         <v>0.47365499999999999</v>
@@ -6057,19 +6056,19 @@
     </row>
     <row r="6" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B6" s="8">
         <v>952421</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>407</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>408</v>
       </c>
       <c r="F6" s="12">
         <v>450</v>
@@ -6081,13 +6080,13 @@
         <v>450</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L6" s="15">
         <v>99</v>
@@ -6126,7 +6125,7 @@
         <v>161</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y6" s="12">
         <v>-0.85450000000000004</v>
@@ -6135,7 +6134,7 @@
         <v>58.82</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB6" s="27" t="s">
         <v>273</v>
@@ -6144,29 +6143,29 @@
         <v>260</v>
       </c>
       <c r="AD6" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE6" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="AE6" s="31" t="s">
+      <c r="AF6" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="AG6" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="AF6" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG6" s="31" t="s">
-        <v>459</v>
-      </c>
       <c r="AH6" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI6" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AJ6" s="32"/>
       <c r="AK6" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="AL6" s="31" t="s">
         <v>469</v>
-      </c>
-      <c r="AL6" s="31" t="s">
-        <v>470</v>
       </c>
       <c r="AM6" s="31">
         <v>1198</v>
@@ -6178,13 +6177,13 @@
         <v>394</v>
       </c>
       <c r="AP6" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AQ6" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR6" s="31" t="s">
         <v>471</v>
-      </c>
-      <c r="AR6" s="31" t="s">
-        <v>472</v>
       </c>
       <c r="AS6" s="8"/>
       <c r="AT6" s="8">
@@ -6195,37 +6194,37 @@
         <v>1</v>
       </c>
       <c r="AW6" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AX6" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AY6" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AZ6" s="29"/>
       <c r="BA6" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BB6" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BC6" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BD6" s="29"/>
       <c r="BE6" s="10"/>
       <c r="BF6" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BG6" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BH6" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BI6" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BJ6" s="31">
         <v>0.93779999999999997</v>
@@ -6274,7 +6273,7 @@
       <c r="CF6" s="10"/>
       <c r="CG6" s="10"/>
       <c r="CH6" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="CI6" s="34">
         <v>0.93398800000000004</v>
@@ -6369,19 +6368,19 @@
     </row>
     <row r="7" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" s="8">
         <v>953259</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F7" s="12">
         <v>782</v>
@@ -6393,13 +6392,13 @@
         <v>782</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L7" s="15">
         <v>99</v>
@@ -6438,7 +6437,7 @@
         <v>246</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y7" s="12">
         <v>-1.5309999999999999</v>
@@ -6447,7 +6446,7 @@
         <v>56.57</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AB7" s="27" t="s">
         <v>273</v>
@@ -6456,29 +6455,29 @@
         <v>260</v>
       </c>
       <c r="AD7" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE7" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="AE7" s="31" t="s">
+      <c r="AF7" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="AG7" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="AF7" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG7" s="31" t="s">
-        <v>459</v>
-      </c>
       <c r="AH7" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI7" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AJ7" s="32"/>
       <c r="AK7" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="AL7" s="31" t="s">
         <v>474</v>
-      </c>
-      <c r="AL7" s="31" t="s">
-        <v>475</v>
       </c>
       <c r="AM7" s="31">
         <v>934</v>
@@ -6490,13 +6489,13 @@
         <v>306</v>
       </c>
       <c r="AP7" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="AQ7" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="AQ7" s="31" t="s">
+      <c r="AR7" s="31" t="s">
         <v>477</v>
-      </c>
-      <c r="AR7" s="31" t="s">
-        <v>478</v>
       </c>
       <c r="AS7" s="8"/>
       <c r="AT7" s="8">
@@ -6507,34 +6506,34 @@
         <v>1</v>
       </c>
       <c r="AW7" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AX7" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AY7" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AZ7" s="29"/>
       <c r="BA7" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BB7" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BC7" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BD7" s="29"/>
       <c r="BE7" s="10"/>
       <c r="BF7" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BG7" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BH7" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BI7" s="15">
         <v>0.73709999999999998</v>
@@ -6586,7 +6585,7 @@
       <c r="CF7" s="10"/>
       <c r="CG7" s="10"/>
       <c r="CH7" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="CI7" s="34">
         <v>0.93401000000000001</v>
@@ -6681,19 +6680,19 @@
     </row>
     <row r="8" spans="1:116" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B8" s="8">
         <v>2194700</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F8" s="12">
         <v>2</v>
@@ -6705,19 +6704,19 @@
         <v>2</v>
       </c>
       <c r="I8" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="M8" s="15" t="s">
         <v>482</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>483</v>
       </c>
       <c r="N8" s="22">
         <v>6</v>
@@ -6750,7 +6749,7 @@
         <v>2</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y8" s="12">
         <v>7.36</v>
@@ -6759,7 +6758,7 @@
         <v>60</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB8" s="27" t="s">
         <v>248</v>
@@ -6768,29 +6767,29 @@
         <v>243</v>
       </c>
       <c r="AD8" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE8" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="AE8" s="31" t="s">
+      <c r="AF8" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="AG8" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="AF8" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG8" s="31" t="s">
-        <v>486</v>
-      </c>
       <c r="AH8" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AJ8" s="32"/>
       <c r="AK8" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="AL8" s="31" t="s">
         <v>487</v>
-      </c>
-      <c r="AL8" s="31" t="s">
-        <v>488</v>
       </c>
       <c r="AM8" s="31">
         <v>76</v>
@@ -6802,13 +6801,13 @@
         <v>17</v>
       </c>
       <c r="AP8" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="AQ8" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="AQ8" s="31" t="s">
+      <c r="AR8" s="31" t="s">
         <v>490</v>
-      </c>
-      <c r="AR8" s="31" t="s">
-        <v>491</v>
       </c>
       <c r="AS8" s="8"/>
       <c r="AT8" s="8">
@@ -6819,37 +6818,37 @@
         <v>1</v>
       </c>
       <c r="AW8" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AX8" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AY8" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AZ8" s="29"/>
       <c r="BA8" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BB8" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BC8" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BD8" s="29"/>
       <c r="BE8" s="10"/>
       <c r="BF8" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="BG8" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="BG8" s="10" t="s">
-        <v>494</v>
-      </c>
       <c r="BH8" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BJ8" s="31">
         <v>0.99609999999999999</v>
@@ -6880,10 +6879,10 @@
       </c>
       <c r="BS8" s="38"/>
       <c r="BT8" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BU8" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BV8" s="42"/>
       <c r="BW8" s="8"/>
@@ -6902,7 +6901,7 @@
       <c r="CF8" s="10"/>
       <c r="CG8" s="10"/>
       <c r="CH8" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="CI8" s="34">
         <v>0.99995699999999998</v>
@@ -6997,7 +6996,7 @@
     </row>
     <row r="9" spans="1:116" x14ac:dyDescent="0.25">
       <c r="BF9" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -7047,46 +7046,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>392</v>
-      </c>
       <c r="H1" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>511</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>512</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>24</v>
@@ -7196,7 +7195,7 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" s="8">
         <v>1632544</v>
@@ -7205,16 +7204,16 @@
         <v>1632947</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>514</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H2" s="15">
         <v>0</v>
@@ -7235,43 +7234,43 @@
         <v>78</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q2" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q2" s="29" t="s">
+      <c r="R2" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S2" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T2" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W2" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="V2" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>520</v>
-      </c>
       <c r="X2" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y2" s="45" t="s">
+        <v>613</v>
+      </c>
+      <c r="Z2" s="45" t="s">
         <v>614</v>
-      </c>
-      <c r="Z2" s="45" t="s">
-        <v>615</v>
       </c>
       <c r="AA2" s="29"/>
       <c r="AB2" s="29"/>
@@ -7290,17 +7289,17 @@
         <v>1</v>
       </c>
       <c r="AM2" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN2" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP2" s="29"/>
       <c r="AQ2" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR2" s="29"/>
       <c r="AS2" s="29"/>
@@ -7313,7 +7312,7 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" s="8">
         <v>1632948</v>
@@ -7322,16 +7321,16 @@
         <v>1633613</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>514</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H3" s="15">
         <v>0</v>
@@ -7352,43 +7351,43 @@
         <v>78</v>
       </c>
       <c r="N3" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q3" s="29" t="s">
+      <c r="R3" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S3" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W3" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="V3" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>520</v>
-      </c>
       <c r="X3" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y3" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z3" s="45" t="s">
         <v>616</v>
-      </c>
-      <c r="Z3" s="45" t="s">
-        <v>617</v>
       </c>
       <c r="AA3" s="29"/>
       <c r="AB3" s="29"/>
@@ -7407,17 +7406,17 @@
         <v>1</v>
       </c>
       <c r="AM3" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN3" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP3" s="29"/>
       <c r="AQ3" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR3" s="29"/>
       <c r="AS3" s="29"/>
@@ -7430,7 +7429,7 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" s="8">
         <v>1633614</v>
@@ -7439,14 +7438,14 @@
         <v>1634150</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H4" s="15">
         <v>2</v>
@@ -7467,43 +7466,43 @@
         <v>78</v>
       </c>
       <c r="N4" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>524</v>
-      </c>
       <c r="Q4" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S4" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T4" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="V4" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W4" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="V4" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>520</v>
-      </c>
       <c r="X4" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y4" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z4" s="45" t="s">
         <v>618</v>
-      </c>
-      <c r="Z4" s="45" t="s">
-        <v>619</v>
       </c>
       <c r="AA4" s="29"/>
       <c r="AB4" s="29"/>
@@ -7522,17 +7521,17 @@
         <v>1</v>
       </c>
       <c r="AM4" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN4" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP4" s="29"/>
       <c r="AQ4" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR4" s="29"/>
       <c r="AS4" s="29"/>
@@ -7545,7 +7544,7 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5" s="8">
         <v>1634151</v>
@@ -7554,16 +7553,16 @@
         <v>1634389</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>513</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>514</v>
       </c>
       <c r="H5" s="15">
         <v>2</v>
@@ -7584,43 +7583,43 @@
         <v>67</v>
       </c>
       <c r="N5" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="P5" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>528</v>
-      </c>
       <c r="Q5" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S5" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T5" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="U5" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="V5" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W5" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="V5" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>520</v>
-      </c>
       <c r="X5" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y5" s="45" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z5" s="45" t="s">
         <v>620</v>
-      </c>
-      <c r="Z5" s="45" t="s">
-        <v>621</v>
       </c>
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
@@ -7639,17 +7638,17 @@
         <v>1</v>
       </c>
       <c r="AM5" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN5" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP5" s="29"/>
       <c r="AQ5" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR5" s="29"/>
       <c r="AS5" s="29"/>
@@ -7662,7 +7661,7 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B6" s="8">
         <v>1634390</v>
@@ -7671,13 +7670,13 @@
         <v>1634877</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15">
@@ -7699,43 +7698,43 @@
         <v>7</v>
       </c>
       <c r="N6" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>532</v>
       </c>
       <c r="S6" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T6" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="V6" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W6" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="V6" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>520</v>
-      </c>
       <c r="X6" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y6" s="45" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z6" s="45" t="s">
         <v>622</v>
-      </c>
-      <c r="Z6" s="45" t="s">
-        <v>623</v>
       </c>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
@@ -7754,17 +7753,17 @@
         <v>1</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN6" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP6" s="29"/>
       <c r="AQ6" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR6" s="29"/>
       <c r="AS6" s="29"/>
@@ -7777,7 +7776,7 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" s="8">
         <v>1641412</v>
@@ -7786,14 +7785,14 @@
         <v>1641863</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H7" s="15">
         <v>2</v>
@@ -7814,43 +7813,43 @@
         <v>78</v>
       </c>
       <c r="N7" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>534</v>
-      </c>
       <c r="P7" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q7" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="R7" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S7" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T7" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="U7" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="V7" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W7" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="X7" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y7" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z7" s="45" t="s">
         <v>624</v>
-      </c>
-      <c r="Z7" s="45" t="s">
-        <v>625</v>
       </c>
       <c r="AA7" s="29"/>
       <c r="AB7" s="29"/>
@@ -7869,17 +7868,17 @@
         <v>1</v>
       </c>
       <c r="AM7" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN7" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AO7" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP7" s="29"/>
       <c r="AQ7" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR7" s="29"/>
       <c r="AS7" s="29"/>
@@ -7892,7 +7891,7 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B8" s="8">
         <v>1641864</v>
@@ -7901,16 +7900,16 @@
         <v>1642174</v>
       </c>
       <c r="D8" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>514</v>
-      </c>
       <c r="F8" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
@@ -7931,43 +7930,43 @@
         <v>78</v>
       </c>
       <c r="N8" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q8" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="O8" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q8" s="29" t="s">
+      <c r="R8" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S8" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T8" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="U8" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="U8" s="12" t="s">
+      <c r="V8" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W8" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V8" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="X8" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y8" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z8" s="45" t="s">
         <v>626</v>
-      </c>
-      <c r="Z8" s="45" t="s">
-        <v>627</v>
       </c>
       <c r="AA8" s="29"/>
       <c r="AB8" s="29"/>
@@ -7986,17 +7985,17 @@
         <v>1</v>
       </c>
       <c r="AM8" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN8" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AO8" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP8" s="29"/>
       <c r="AQ8" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR8" s="29"/>
       <c r="AS8" s="29"/>
@@ -8009,7 +8008,7 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B9" s="8">
         <v>1642175</v>
@@ -8018,16 +8017,16 @@
         <v>1642758</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>514</v>
-      </c>
       <c r="F9" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H9" s="15">
         <v>0</v>
@@ -8048,43 +8047,43 @@
         <v>78</v>
       </c>
       <c r="N9" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q9" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q9" s="29" t="s">
+      <c r="R9" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S9" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T9" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="U9" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="V9" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W9" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="V9" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="X9" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y9" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z9" s="45" t="s">
         <v>628</v>
-      </c>
-      <c r="Z9" s="45" t="s">
-        <v>629</v>
       </c>
       <c r="AA9" s="29"/>
       <c r="AB9" s="29"/>
@@ -8103,17 +8102,17 @@
         <v>1</v>
       </c>
       <c r="AM9" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN9" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AO9" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP9" s="29"/>
       <c r="AQ9" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR9" s="29"/>
       <c r="AS9" s="29"/>
@@ -8126,7 +8125,7 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B10" s="8">
         <v>1675828</v>
@@ -8135,13 +8134,13 @@
         <v>1676288</v>
       </c>
       <c r="D10" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>514</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15">
@@ -8163,43 +8162,43 @@
         <v>19</v>
       </c>
       <c r="N10" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="P10" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>541</v>
-      </c>
       <c r="Q10" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R10" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S10" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T10" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="U10" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="V10" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W10" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="V10" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>544</v>
-      </c>
       <c r="X10" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y10" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z10" s="45" t="s">
         <v>630</v>
-      </c>
-      <c r="Z10" s="45" t="s">
-        <v>631</v>
       </c>
       <c r="AA10" s="29"/>
       <c r="AB10" s="29"/>
@@ -8218,17 +8217,17 @@
         <v>1</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN10" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AO10" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP10" s="29"/>
       <c r="AQ10" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR10" s="29"/>
       <c r="AS10" s="29"/>
@@ -8241,7 +8240,7 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B11" s="8">
         <v>1702637</v>
@@ -8250,14 +8249,14 @@
         <v>1703039</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H11" s="15">
         <v>2</v>
@@ -8278,43 +8277,43 @@
         <v>1</v>
       </c>
       <c r="N11" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>548</v>
-      </c>
       <c r="Q11" s="29" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S11" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T11" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="V11" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W11" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V11" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W11" s="12" t="s">
+      <c r="X11" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y11" s="45" t="s">
         <v>551</v>
       </c>
-      <c r="X11" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y11" s="45" t="s">
+      <c r="Z11" s="45" t="s">
         <v>552</v>
-      </c>
-      <c r="Z11" s="45" t="s">
-        <v>553</v>
       </c>
       <c r="AA11" s="29"/>
       <c r="AB11" s="29"/>
@@ -8333,17 +8332,17 @@
         <v>1</v>
       </c>
       <c r="AM11" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN11" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO11" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP11" s="29"/>
       <c r="AQ11" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR11" s="29"/>
       <c r="AS11" s="29"/>
@@ -8356,7 +8355,7 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B12" s="8">
         <v>1703040</v>
@@ -8365,14 +8364,14 @@
         <v>1703382</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H12" s="15">
         <v>2</v>
@@ -8393,43 +8392,43 @@
         <v>1</v>
       </c>
       <c r="N12" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="P12" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>557</v>
-      </c>
       <c r="Q12" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S12" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T12" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U12" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="V12" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W12" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V12" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X12" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y12" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z12" s="45" t="s">
         <v>558</v>
-      </c>
-      <c r="Z12" s="45" t="s">
-        <v>559</v>
       </c>
       <c r="AA12" s="29"/>
       <c r="AB12" s="29"/>
@@ -8448,17 +8447,17 @@
         <v>1</v>
       </c>
       <c r="AM12" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN12" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO12" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP12" s="29"/>
       <c r="AQ12" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR12" s="29"/>
       <c r="AS12" s="29"/>
@@ -8471,7 +8470,7 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B13" s="8">
         <v>1703383</v>
@@ -8480,14 +8479,14 @@
         <v>1703723</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H13" s="15">
         <v>2</v>
@@ -8508,43 +8507,43 @@
         <v>13</v>
       </c>
       <c r="N13" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="P13" s="12" t="s">
-        <v>562</v>
-      </c>
       <c r="Q13" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R13" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S13" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="V13" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W13" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V13" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X13" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y13" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z13" s="45" t="s">
         <v>563</v>
-      </c>
-      <c r="Z13" s="45" t="s">
-        <v>564</v>
       </c>
       <c r="AA13" s="29"/>
       <c r="AB13" s="29"/>
@@ -8563,17 +8562,17 @@
         <v>1</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN13" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO13" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP13" s="29"/>
       <c r="AQ13" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR13" s="29"/>
       <c r="AS13" s="29"/>
@@ -8586,7 +8585,7 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B14" s="8">
         <v>1703724</v>
@@ -8595,14 +8594,14 @@
         <v>1703989</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H14" s="15">
         <v>2</v>
@@ -8623,43 +8622,43 @@
         <v>46</v>
       </c>
       <c r="N14" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>567</v>
-      </c>
       <c r="Q14" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R14" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S14" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T14" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U14" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U14" s="12" t="s">
+      <c r="V14" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W14" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V14" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X14" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y14" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z14" s="45" t="s">
         <v>568</v>
-      </c>
-      <c r="Z14" s="45" t="s">
-        <v>569</v>
       </c>
       <c r="AA14" s="29"/>
       <c r="AB14" s="29"/>
@@ -8678,17 +8677,17 @@
         <v>1</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN14" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP14" s="29"/>
       <c r="AQ14" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR14" s="29"/>
       <c r="AS14" s="29"/>
@@ -8701,7 +8700,7 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B15" s="8">
         <v>1703990</v>
@@ -8710,14 +8709,14 @@
         <v>1704184</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H15" s="15">
         <v>2</v>
@@ -8738,43 +8737,43 @@
         <v>56</v>
       </c>
       <c r="N15" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="P15" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="P15" s="12" t="s">
-        <v>572</v>
-      </c>
       <c r="Q15" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R15" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S15" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T15" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="V15" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W15" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V15" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X15" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y15" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z15" s="45" t="s">
         <v>573</v>
-      </c>
-      <c r="Z15" s="45" t="s">
-        <v>574</v>
       </c>
       <c r="AA15" s="29"/>
       <c r="AB15" s="29"/>
@@ -8793,17 +8792,17 @@
         <v>1</v>
       </c>
       <c r="AM15" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN15" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO15" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP15" s="29"/>
       <c r="AQ15" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR15" s="29"/>
       <c r="AS15" s="29"/>
@@ -8816,7 +8815,7 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B16" s="8">
         <v>1704185</v>
@@ -8825,14 +8824,14 @@
         <v>1704413</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H16" s="15">
         <v>2</v>
@@ -8853,43 +8852,43 @@
         <v>48</v>
       </c>
       <c r="N16" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="P16" s="12" t="s">
-        <v>577</v>
-      </c>
       <c r="Q16" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R16" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S16" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T16" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U16" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="V16" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W16" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V16" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X16" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y16" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z16" s="45" t="s">
         <v>578</v>
-      </c>
-      <c r="Z16" s="45" t="s">
-        <v>579</v>
       </c>
       <c r="AA16" s="29"/>
       <c r="AB16" s="29"/>
@@ -8908,17 +8907,17 @@
         <v>1</v>
       </c>
       <c r="AM16" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN16" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO16" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP16" s="29"/>
       <c r="AQ16" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR16" s="29"/>
       <c r="AS16" s="29"/>
@@ -8931,7 +8930,7 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B17" s="8">
         <v>1704414</v>
@@ -8940,14 +8939,14 @@
         <v>1704728</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H17" s="15">
         <v>2</v>
@@ -8968,43 +8967,43 @@
         <v>17</v>
       </c>
       <c r="N17" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>582</v>
-      </c>
       <c r="Q17" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R17" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S17" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T17" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U17" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="V17" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W17" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V17" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X17" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y17" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z17" s="45" t="s">
         <v>583</v>
-      </c>
-      <c r="Z17" s="45" t="s">
-        <v>584</v>
       </c>
       <c r="AA17" s="29"/>
       <c r="AB17" s="29"/>
@@ -9023,17 +9022,17 @@
         <v>1</v>
       </c>
       <c r="AM17" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN17" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO17" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP17" s="29"/>
       <c r="AQ17" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR17" s="29"/>
       <c r="AS17" s="29"/>
@@ -9046,7 +9045,7 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B18" s="8">
         <v>1705372</v>
@@ -9055,16 +9054,16 @@
         <v>1706002</v>
       </c>
       <c r="D18" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>514</v>
-      </c>
       <c r="F18" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H18" s="15">
         <v>0</v>
@@ -9085,43 +9084,43 @@
         <v>2</v>
       </c>
       <c r="N18" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="O18" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="P18" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P18" s="12" t="s">
-        <v>587</v>
-      </c>
       <c r="Q18" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S18" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T18" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U18" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U18" s="12" t="s">
+      <c r="V18" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W18" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V18" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X18" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y18" s="45" t="s">
+        <v>631</v>
+      </c>
+      <c r="Z18" s="45" t="s">
         <v>632</v>
-      </c>
-      <c r="Z18" s="45" t="s">
-        <v>633</v>
       </c>
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
@@ -9140,17 +9139,17 @@
         <v>1</v>
       </c>
       <c r="AM18" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN18" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO18" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP18" s="29"/>
       <c r="AQ18" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR18" s="29"/>
       <c r="AS18" s="29"/>
@@ -9163,7 +9162,7 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B19" s="8">
         <v>1707158</v>
@@ -9172,14 +9171,14 @@
         <v>1707834</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H19" s="15">
         <v>2</v>
@@ -9200,43 +9199,43 @@
         <v>2</v>
       </c>
       <c r="N19" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="O19" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="P19" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="P19" s="12" t="s">
-        <v>590</v>
-      </c>
       <c r="Q19" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R19" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S19" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T19" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U19" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="V19" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W19" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V19" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W19" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X19" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y19" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z19" s="45" t="s">
         <v>634</v>
-      </c>
-      <c r="Z19" s="45" t="s">
-        <v>635</v>
       </c>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
@@ -9255,17 +9254,17 @@
         <v>1</v>
       </c>
       <c r="AM19" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN19" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO19" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP19" s="29"/>
       <c r="AQ19" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR19" s="29"/>
       <c r="AS19" s="29"/>
@@ -9278,7 +9277,7 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B20" s="8">
         <v>1707919</v>
@@ -9287,14 +9286,14 @@
         <v>1708515</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H20" s="15">
         <v>2</v>
@@ -9315,43 +9314,43 @@
         <v>0</v>
       </c>
       <c r="N20" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="P20" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="P20" s="12" t="s">
-        <v>593</v>
-      </c>
       <c r="Q20" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R20" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S20" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T20" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U20" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U20" s="12" t="s">
+      <c r="V20" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W20" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V20" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W20" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X20" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y20" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z20" s="45" t="s">
         <v>636</v>
-      </c>
-      <c r="Z20" s="45" t="s">
-        <v>637</v>
       </c>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
@@ -9370,17 +9369,17 @@
         <v>1</v>
       </c>
       <c r="AM20" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN20" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO20" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP20" s="29"/>
       <c r="AQ20" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR20" s="29"/>
       <c r="AS20" s="29"/>
@@ -9393,7 +9392,7 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B21" s="8">
         <v>1708524</v>
@@ -9402,14 +9401,14 @@
         <v>1708995</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H21" s="15">
         <v>3</v>
@@ -9430,43 +9429,43 @@
         <v>1</v>
       </c>
       <c r="N21" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="O21" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="P21" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="P21" s="12" t="s">
-        <v>596</v>
-      </c>
       <c r="Q21" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R21" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S21" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T21" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U21" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U21" s="12" t="s">
+      <c r="V21" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W21" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V21" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X21" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y21" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z21" s="45" t="s">
         <v>624</v>
-      </c>
-      <c r="Z21" s="45" t="s">
-        <v>625</v>
       </c>
       <c r="AA21" s="29"/>
       <c r="AB21" s="29"/>
@@ -9485,17 +9484,17 @@
         <v>1</v>
       </c>
       <c r="AM21" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN21" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO21" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP21" s="29"/>
       <c r="AQ21" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR21" s="29"/>
       <c r="AS21" s="29"/>
@@ -9508,7 +9507,7 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B22" s="8">
         <v>1708996</v>
@@ -9517,16 +9516,16 @@
         <v>1709316</v>
       </c>
       <c r="D22" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>514</v>
-      </c>
       <c r="F22" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H22" s="15">
         <v>0</v>
@@ -9547,43 +9546,43 @@
         <v>78</v>
       </c>
       <c r="N22" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q22" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="O22" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q22" s="29" t="s">
+      <c r="R22" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S22" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T22" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U22" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U22" s="12" t="s">
+      <c r="V22" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W22" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V22" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W22" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X22" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y22" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z22" s="45" t="s">
         <v>626</v>
-      </c>
-      <c r="Z22" s="45" t="s">
-        <v>627</v>
       </c>
       <c r="AA22" s="29"/>
       <c r="AB22" s="29"/>
@@ -9602,17 +9601,17 @@
         <v>1</v>
       </c>
       <c r="AM22" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN22" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO22" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP22" s="29"/>
       <c r="AQ22" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR22" s="29"/>
       <c r="AS22" s="29"/>
@@ -9625,7 +9624,7 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B23" s="8">
         <v>1709317</v>
@@ -9634,16 +9633,16 @@
         <v>1709910</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>514</v>
-      </c>
       <c r="F23" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H23" s="15">
         <v>0</v>
@@ -9664,43 +9663,43 @@
         <v>78</v>
       </c>
       <c r="N23" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q23" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="O23" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q23" s="29" t="s">
+      <c r="R23" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R23" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S23" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T23" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U23" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U23" s="12" t="s">
+      <c r="V23" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W23" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V23" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X23" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y23" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z23" s="45" t="s">
         <v>628</v>
-      </c>
-      <c r="Z23" s="45" t="s">
-        <v>629</v>
       </c>
       <c r="AA23" s="29"/>
       <c r="AB23" s="29"/>
@@ -9719,17 +9718,17 @@
         <v>1</v>
       </c>
       <c r="AM23" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN23" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO23" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP23" s="29"/>
       <c r="AQ23" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR23" s="29"/>
       <c r="AS23" s="29"/>
@@ -9742,7 +9741,7 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B24" s="8">
         <v>1711994</v>
@@ -9751,14 +9750,14 @@
         <v>1712677</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H24" s="15">
         <v>2</v>
@@ -9779,43 +9778,43 @@
         <v>23</v>
       </c>
       <c r="N24" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="O24" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="P24" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="P24" s="12" t="s">
-        <v>599</v>
-      </c>
       <c r="Q24" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R24" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S24" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T24" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U24" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U24" s="12" t="s">
+      <c r="V24" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W24" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V24" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X24" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y24" s="45" t="s">
+        <v>637</v>
+      </c>
+      <c r="Z24" s="45" t="s">
         <v>638</v>
-      </c>
-      <c r="Z24" s="45" t="s">
-        <v>639</v>
       </c>
       <c r="AA24" s="29"/>
       <c r="AB24" s="29"/>
@@ -9834,17 +9833,17 @@
         <v>1</v>
       </c>
       <c r="AM24" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN24" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO24" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP24" s="29"/>
       <c r="AQ24" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR24" s="29"/>
       <c r="AS24" s="29"/>
@@ -9857,7 +9856,7 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B25" s="8">
         <v>1721345</v>
@@ -9866,14 +9865,14 @@
         <v>1721961</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H25" s="15">
         <v>2</v>
@@ -9894,43 +9893,43 @@
         <v>0</v>
       </c>
       <c r="N25" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="O25" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="P25" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="P25" s="12" t="s">
-        <v>602</v>
-      </c>
       <c r="Q25" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R25" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S25" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T25" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="U25" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="U25" s="12" t="s">
+      <c r="V25" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W25" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="V25" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="X25" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y25" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z25" s="45" t="s">
         <v>640</v>
-      </c>
-      <c r="Z25" s="45" t="s">
-        <v>641</v>
       </c>
       <c r="AA25" s="29"/>
       <c r="AB25" s="29"/>
@@ -9949,17 +9948,17 @@
         <v>1</v>
       </c>
       <c r="AM25" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN25" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO25" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP25" s="29"/>
       <c r="AQ25" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR25" s="29"/>
       <c r="AS25" s="29"/>
@@ -9972,7 +9971,7 @@
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B26" s="8">
         <v>1732203</v>
@@ -9981,14 +9980,14 @@
         <v>1732775</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H26" s="15">
         <v>2</v>
@@ -10009,48 +10008,48 @@
         <v>6</v>
       </c>
       <c r="N26" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="P26" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="P26" s="12" t="s">
-        <v>605</v>
-      </c>
       <c r="Q26" s="29" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S26" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T26" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="U26" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="U26" s="12" t="s">
+      <c r="V26" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W26" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="V26" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W26" s="12" t="s">
-        <v>608</v>
-      </c>
       <c r="X26" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y26" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z26" s="45" t="s">
         <v>642</v>
-      </c>
-      <c r="Z26" s="45" t="s">
-        <v>643</v>
       </c>
       <c r="AA26" s="29"/>
       <c r="AB26" s="29"/>
       <c r="AC26" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AD26" s="29"/>
       <c r="AE26" s="29"/>
@@ -10066,17 +10065,17 @@
         <v>1</v>
       </c>
       <c r="AM26" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN26" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP26" s="29"/>
       <c r="AQ26" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR26" s="29"/>
       <c r="AS26" s="29"/>
@@ -10089,7 +10088,7 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B27" s="8">
         <v>1734438</v>
@@ -10098,14 +10097,14 @@
         <v>1735087</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H27" s="15">
         <v>2</v>
@@ -10126,43 +10125,43 @@
         <v>5</v>
       </c>
       <c r="N27" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="O27" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="P27" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="P27" s="12" t="s">
-        <v>613</v>
-      </c>
       <c r="Q27" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="R27" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="S27" s="29" t="s">
         <v>281</v>
       </c>
       <c r="T27" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="U27" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="U27" s="12" t="s">
+      <c r="V27" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W27" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="V27" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="W27" s="12" t="s">
-        <v>608</v>
-      </c>
       <c r="X27" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y27" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z27" s="45" t="s">
         <v>644</v>
-      </c>
-      <c r="Z27" s="45" t="s">
-        <v>645</v>
       </c>
       <c r="AA27" s="29"/>
       <c r="AB27" s="29"/>
@@ -10181,17 +10180,17 @@
         <v>1</v>
       </c>
       <c r="AM27" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AN27" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR27" s="29"/>
       <c r="AS27" s="29"/>
